--- a/Logistic OS/TempDocs/Test.xlsx
+++ b/Logistic OS/TempDocs/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Loading Completed" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="366">
   <si>
     <t>№</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Destination</t>
   </si>
   <si>
-    <t xml:space="preserve">Port of Discharge </t>
-  </si>
-  <si>
     <t>Buyer</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
     <t>ETB</t>
   </si>
   <si>
+    <t>Port of Discharge</t>
+  </si>
+  <si>
     <t>TUAPSE</t>
   </si>
   <si>
@@ -132,9 +132,42 @@
     <t>KENYA</t>
   </si>
   <si>
+    <t>MOMBASA / KE MBA</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>MEDI BANGKOK</t>
+  </si>
+  <si>
+    <t>39 068,000</t>
+  </si>
+  <si>
+    <t>25.08.2020</t>
+  </si>
+  <si>
+    <t>LOUIS DREYFUS VOSTOK</t>
+  </si>
+  <si>
+    <t>PHILIPPINES</t>
+  </si>
+  <si>
+    <t>10 001,000</t>
+  </si>
+  <si>
+    <t>MALAYSIA</t>
+  </si>
+  <si>
+    <t>LION</t>
+  </si>
+  <si>
+    <t>27 000,000</t>
+  </si>
+  <si>
+    <t>29.08.2020</t>
+  </si>
+  <si>
     <t>NOVOROSSIYSK</t>
   </si>
   <si>
@@ -258,7 +291,7 @@
     <t>EQUINOX ORENDA</t>
   </si>
   <si>
-    <t>17 480,000</t>
+    <t>25 473,000</t>
   </si>
   <si>
     <t>21.08.2020</t>
@@ -276,6 +309,33 @@
     <t>ABIDJAN / CI ABJ</t>
   </si>
   <si>
+    <t>BONITA / LR</t>
+  </si>
+  <si>
+    <t>58 170,000</t>
+  </si>
+  <si>
+    <t>26.08.2020</t>
+  </si>
+  <si>
+    <t>AST COMPANY M APK</t>
+  </si>
+  <si>
+    <t>YASA CANARY</t>
+  </si>
+  <si>
+    <t>46 970,000</t>
+  </si>
+  <si>
+    <t>30.08.2020</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>ISKENDERUN / TR ISK</t>
+  </si>
+  <si>
     <t>NGT</t>
   </si>
   <si>
@@ -303,9 +363,6 @@
     <t>30 000,000</t>
   </si>
   <si>
-    <t>AST COMPANY M APK</t>
-  </si>
-  <si>
     <t>ARAB MILLS &amp; FOOD INDUSTRIES COMPANY</t>
   </si>
   <si>
@@ -336,6 +393,12 @@
     <t>SAUDI ARABIA</t>
   </si>
   <si>
+    <t>JEDDAH / SA JED</t>
+  </si>
+  <si>
+    <t>SAUDI GRAINS ORGANIZATION SAUDI ARABIA</t>
+  </si>
+  <si>
     <t>ANGELIC PEACE</t>
   </si>
   <si>
@@ -366,6 +429,24 @@
     <t>TOGO</t>
   </si>
   <si>
+    <t>ANTAKYA M</t>
+  </si>
+  <si>
+    <t>54 000,000</t>
+  </si>
+  <si>
+    <t>BANGLADESH</t>
+  </si>
+  <si>
+    <t>LIBERTY</t>
+  </si>
+  <si>
+    <t>57 000,000</t>
+  </si>
+  <si>
+    <t>28.08.2020</t>
+  </si>
+  <si>
     <t>NKHP</t>
   </si>
   <si>
@@ -396,9 +477,6 @@
     <t>UNITED GRAIN COMPANY</t>
   </si>
   <si>
-    <t>BANGLADESH</t>
-  </si>
-  <si>
     <t>CHITTAGONG / BD CGP</t>
   </si>
   <si>
@@ -411,9 +489,6 @@
     <t>09.08.2020</t>
   </si>
   <si>
-    <t>LOUIS DREYFUS VOSTOK</t>
-  </si>
-  <si>
     <t>SENEGAL</t>
   </si>
   <si>
@@ -456,6 +531,27 @@
     <t>38 870,000</t>
   </si>
   <si>
+    <t>GIEWONT</t>
+  </si>
+  <si>
+    <t>65 230,000</t>
+  </si>
+  <si>
+    <t>IRMGARD</t>
+  </si>
+  <si>
+    <t>36 676,199</t>
+  </si>
+  <si>
+    <t>27.08.2020</t>
+  </si>
+  <si>
+    <t>PANDA / KY</t>
+  </si>
+  <si>
+    <t>DAKAR / SN DKR</t>
+  </si>
+  <si>
     <t>KAVKAZ ROADS</t>
   </si>
   <si>
@@ -573,12 +669,6 @@
     <t>25 000,000</t>
   </si>
   <si>
-    <t>TURKEY</t>
-  </si>
-  <si>
-    <t>ISKENDERUN / TR ISK</t>
-  </si>
-  <si>
     <t>LUCENT</t>
   </si>
   <si>
@@ -627,9 +717,6 @@
     <t>27 400,000</t>
   </si>
   <si>
-    <t>DAKAR / SN DKR</t>
-  </si>
-  <si>
     <t>16 000,000</t>
   </si>
   <si>
@@ -672,6 +759,12 @@
     <t>70 000,000</t>
   </si>
   <si>
+    <t>MYTHOS</t>
+  </si>
+  <si>
+    <t>65 000,000</t>
+  </si>
+  <si>
     <t>THEODORE JR</t>
   </si>
   <si>
@@ -684,7 +777,10 @@
     <t>FORTUNE TRADER</t>
   </si>
   <si>
-    <t>65 000,000</t>
+    <t>HANDY STRANGER</t>
+  </si>
+  <si>
+    <t>29 650,000</t>
   </si>
   <si>
     <t>NANA LEEN</t>
@@ -693,6 +789,18 @@
     <t>26 000,000</t>
   </si>
   <si>
+    <t>GLOVIS MADRID</t>
+  </si>
+  <si>
+    <t>ZERNO-TRADE</t>
+  </si>
+  <si>
+    <t>MOZAMBIQUE</t>
+  </si>
+  <si>
+    <t>MAPUTO / MZ MPM</t>
+  </si>
+  <si>
     <t>EMMAKRIS II</t>
   </si>
   <si>
@@ -702,6 +810,45 @@
     <t>AQABA / JO AQB</t>
   </si>
   <si>
+    <t>VULLY</t>
+  </si>
+  <si>
+    <t>33 000,000</t>
+  </si>
+  <si>
+    <t>MADAGASCAR</t>
+  </si>
+  <si>
+    <t>INCHCAP</t>
+  </si>
+  <si>
+    <t>SOMALIA</t>
+  </si>
+  <si>
+    <t>AMAL T</t>
+  </si>
+  <si>
+    <t>LEBANON</t>
+  </si>
+  <si>
+    <t>TRIPOLI / LB KYE</t>
+  </si>
+  <si>
+    <t>DESERT SPRING</t>
+  </si>
+  <si>
+    <t>PACIFIC TALENT / HK</t>
+  </si>
+  <si>
+    <t>DIMITRIS S</t>
+  </si>
+  <si>
+    <t>45 000,000</t>
+  </si>
+  <si>
+    <t>OUTSPAN INTERNATIONAL</t>
+  </si>
+  <si>
     <t>TAMAN</t>
   </si>
   <si>
@@ -717,9 +864,6 @@
     <t>CIELO DI MONACO</t>
   </si>
   <si>
-    <t>33 000,000</t>
-  </si>
-  <si>
     <t>04.08.2020</t>
   </si>
   <si>
@@ -744,325 +888,238 @@
     <t>53 000,000</t>
   </si>
   <si>
-    <t>MALAYSIA</t>
-  </si>
-  <si>
-    <t>KALININGRAD</t>
-  </si>
-  <si>
-    <t>SODRUZHESTVO SOYA</t>
-  </si>
-  <si>
-    <t>SORMOVSKIY 3057</t>
-  </si>
-  <si>
-    <t>TRANS-AGRO MA</t>
-  </si>
-  <si>
-    <t>3 000,000</t>
-  </si>
-  <si>
-    <t>SODRUZHESTVO GROUP</t>
-  </si>
-  <si>
-    <t>BELGIUM</t>
-  </si>
-  <si>
-    <t>BRUGGE (BRUGES) / BE BGS</t>
-  </si>
-  <si>
-    <t>POLA ATLANTIC</t>
-  </si>
-  <si>
-    <t>23 006,000</t>
-  </si>
-  <si>
-    <t>BRAZIL</t>
-  </si>
-  <si>
-    <t>SUAPE / BR SUA</t>
-  </si>
-  <si>
-    <t>HILMA BULKER</t>
-  </si>
-  <si>
-    <t>MEDI BANGKOK</t>
+    <t>PASIR GUDANG (JOHOR) / MY PGU</t>
+  </si>
+  <si>
+    <t>POLES</t>
+  </si>
+  <si>
+    <t>46 300,000</t>
+  </si>
+  <si>
+    <t>SSI NEMESIS</t>
   </si>
   <si>
     <t>N/A GR WHEAT</t>
   </si>
   <si>
-    <t>49 070,000</t>
-  </si>
-  <si>
-    <t>PHILIPPINES</t>
-  </si>
-  <si>
-    <t>BONITA / LR</t>
-  </si>
-  <si>
-    <t>58 170,000</t>
-  </si>
-  <si>
-    <t>ANTAKYA M</t>
-  </si>
-  <si>
-    <t>GIEWONT</t>
+    <t>51 375,000</t>
+  </si>
+  <si>
+    <t>EMMAKRIS III</t>
+  </si>
+  <si>
+    <t>10.08.2020</t>
+  </si>
+  <si>
+    <t>LBC EARTH</t>
+  </si>
+  <si>
+    <t>AFRICAN HHB</t>
+  </si>
+  <si>
+    <t>CONGO</t>
+  </si>
+  <si>
+    <t>YANGTZE CLASSIC</t>
+  </si>
+  <si>
+    <t>SRI LANKA</t>
+  </si>
+  <si>
+    <t>KOMI</t>
+  </si>
+  <si>
+    <t>ANTWERPIA</t>
+  </si>
+  <si>
+    <t>60 000,000</t>
+  </si>
+  <si>
+    <t>THAILAND</t>
+  </si>
+  <si>
+    <t>VIKA</t>
+  </si>
+  <si>
+    <t>GENCO LOIRE</t>
+  </si>
+  <si>
+    <t>ORHAN Y</t>
+  </si>
+  <si>
+    <t>SEAPOWER I</t>
+  </si>
+  <si>
+    <t>AYLA</t>
+  </si>
+  <si>
+    <t>AKRA</t>
+  </si>
+  <si>
+    <t>IDC DIAMOND</t>
+  </si>
+  <si>
+    <t>TRITON HAWK</t>
+  </si>
+  <si>
+    <t>BERGE TATEYAMA</t>
+  </si>
+  <si>
+    <t>DORO</t>
+  </si>
+  <si>
+    <t>CORAL AMETHYST</t>
+  </si>
+  <si>
+    <t>NILOS</t>
+  </si>
+  <si>
+    <t>TRUE FRIEND</t>
+  </si>
+  <si>
+    <t>YM EFFORT</t>
+  </si>
+  <si>
+    <t>CPT DIMITRIOS S</t>
   </si>
   <si>
     <t>BARLEY</t>
   </si>
   <si>
-    <t>65 230,000</t>
-  </si>
-  <si>
-    <t>DESERT SPRING</t>
-  </si>
-  <si>
-    <t>PACIFIC TALENT / HK</t>
-  </si>
-  <si>
-    <t>MYTHOS</t>
-  </si>
-  <si>
-    <t>EMMAKRIS III</t>
-  </si>
-  <si>
-    <t>10.08.2020</t>
-  </si>
-  <si>
-    <t>DIMITRIS S</t>
-  </si>
-  <si>
-    <t>45 000,000</t>
-  </si>
-  <si>
-    <t>OUTSPAN INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>GLOVIS MADRID</t>
-  </si>
-  <si>
-    <t>ZERNO-TRADE</t>
-  </si>
-  <si>
-    <t>MOZAMBIQUE</t>
-  </si>
-  <si>
-    <t>VULLY</t>
-  </si>
-  <si>
-    <t>MADAGASCAR</t>
-  </si>
-  <si>
-    <t>HANDY STRANGER</t>
-  </si>
-  <si>
-    <t>29 650,000</t>
-  </si>
-  <si>
-    <t>LBC EARTH</t>
-  </si>
-  <si>
-    <t>60 000,000</t>
-  </si>
-  <si>
-    <t>INCHCAP</t>
-  </si>
-  <si>
-    <t>SOMALIA</t>
-  </si>
-  <si>
-    <t>AFRICAN HHB</t>
-  </si>
-  <si>
-    <t>YANGTZE CLASSIC</t>
-  </si>
-  <si>
-    <t>SRI LANKA</t>
-  </si>
-  <si>
-    <t>KOMI</t>
-  </si>
-  <si>
-    <t>ANTWERPIA</t>
-  </si>
-  <si>
-    <t>THAILAND</t>
-  </si>
-  <si>
-    <t>AMAL T</t>
-  </si>
-  <si>
-    <t>27 000,000</t>
-  </si>
-  <si>
-    <t>21.07.2020</t>
-  </si>
-  <si>
-    <t>CONGO</t>
-  </si>
-  <si>
-    <t>VIKA</t>
-  </si>
-  <si>
-    <t>GENCO LOIRE</t>
-  </si>
-  <si>
-    <t>ORHAN Y</t>
-  </si>
-  <si>
-    <t>SEAPOWER I</t>
-  </si>
-  <si>
-    <t>AYLA</t>
-  </si>
-  <si>
-    <t>AKRA</t>
-  </si>
-  <si>
-    <t>IDC DIAMOND</t>
-  </si>
-  <si>
-    <t>25.08.2020</t>
-  </si>
-  <si>
-    <t>IRMGARD</t>
-  </si>
-  <si>
-    <t>36 676,199</t>
-  </si>
-  <si>
-    <t>PANDA / KY</t>
+    <t>OCEAN SCALLION</t>
+  </si>
+  <si>
+    <t>TOMINI ABILITY</t>
+  </si>
+  <si>
+    <t>55 113,000</t>
+  </si>
+  <si>
+    <t>04.09.2020</t>
+  </si>
+  <si>
+    <t>MANUELA E</t>
+  </si>
+  <si>
+    <t>PEAS</t>
+  </si>
+  <si>
+    <t>5 000,000</t>
+  </si>
+  <si>
+    <t>05.09.2020</t>
+  </si>
+  <si>
+    <t>HTK DISCOVERY</t>
+  </si>
+  <si>
+    <t>07.09.2020</t>
+  </si>
+  <si>
+    <t>M IZMIR</t>
+  </si>
+  <si>
+    <t>CORN</t>
+  </si>
+  <si>
+    <t>6 000,000</t>
+  </si>
+  <si>
+    <t>08.09.2020</t>
+  </si>
+  <si>
+    <t>GANOSAYA</t>
+  </si>
+  <si>
+    <t>14 700,000</t>
+  </si>
+  <si>
+    <t>10.09.2020</t>
+  </si>
+  <si>
+    <t>WP BRAVE</t>
+  </si>
+  <si>
+    <t>QUEEN JUDI</t>
+  </si>
+  <si>
+    <t>30 850,000</t>
+  </si>
+  <si>
+    <t>EMMAKRIS I</t>
+  </si>
+  <si>
+    <t>58 100,000</t>
+  </si>
+  <si>
+    <t>MARAKI K</t>
+  </si>
+  <si>
+    <t>25 600,000</t>
+  </si>
+  <si>
+    <t>FATMA SARI</t>
+  </si>
+  <si>
+    <t>31.08.2020</t>
   </si>
   <si>
     <t>AMINEH M</t>
   </si>
   <si>
-    <t>CORN</t>
-  </si>
-  <si>
     <t>16 500,000</t>
   </si>
   <si>
+    <t>WADI ALARAB</t>
+  </si>
+  <si>
+    <t>01.09.2020</t>
+  </si>
+  <si>
+    <t>WADI ALKARM</t>
+  </si>
+  <si>
+    <t>TAIYUAN</t>
+  </si>
+  <si>
+    <t>36 300,000</t>
+  </si>
+  <si>
+    <t>SEABEE / MT</t>
+  </si>
+  <si>
+    <t>HARROW</t>
+  </si>
+  <si>
+    <t>55 490,000</t>
+  </si>
+  <si>
+    <t>03.09.2020</t>
+  </si>
+  <si>
+    <t>9 360,000</t>
+  </si>
+  <si>
+    <t>TBN</t>
+  </si>
+  <si>
+    <t>KZP EXPO</t>
+  </si>
+  <si>
+    <t>PARANA WARRIOR</t>
+  </si>
+  <si>
+    <t>27 125,000</t>
+  </si>
+  <si>
+    <t>TAMARACK</t>
+  </si>
+  <si>
     <t>02.09.2020</t>
   </si>
   <si>
-    <t>WP BRAVE</t>
-  </si>
-  <si>
-    <t>03.09.2020</t>
-  </si>
-  <si>
-    <t>GANOSAYA</t>
-  </si>
-  <si>
-    <t>14 700,000</t>
-  </si>
-  <si>
-    <t>10.09.2020</t>
-  </si>
-  <si>
-    <t>MARAKI K</t>
-  </si>
-  <si>
-    <t>25 600,000</t>
-  </si>
-  <si>
-    <t>28.08.2020</t>
-  </si>
-  <si>
-    <t>EMMAKRIS I</t>
-  </si>
-  <si>
-    <t>57 800,000</t>
-  </si>
-  <si>
-    <t>QUEEN JUDI</t>
-  </si>
-  <si>
-    <t>30 850,000</t>
-  </si>
-  <si>
-    <t>29.08.2020</t>
-  </si>
-  <si>
-    <t>FATMA SARI</t>
-  </si>
-  <si>
-    <t>31.08.2020</t>
-  </si>
-  <si>
-    <t>YASA CANARY</t>
-  </si>
-  <si>
-    <t>52 000,000</t>
-  </si>
-  <si>
-    <t>WADI ALARAB</t>
-  </si>
-  <si>
-    <t>01.09.2020</t>
-  </si>
-  <si>
-    <t>WADI ALKARM</t>
-  </si>
-  <si>
-    <t>LIBERTY</t>
-  </si>
-  <si>
-    <t>57 000,000</t>
-  </si>
-  <si>
-    <t>26.08.2020</t>
-  </si>
-  <si>
-    <t>OCEAN SCALLION</t>
-  </si>
-  <si>
-    <t>SSI NEMESIS</t>
-  </si>
-  <si>
-    <t>42 900,000</t>
-  </si>
-  <si>
-    <t>27.08.2020</t>
-  </si>
-  <si>
-    <t>HARROW</t>
-  </si>
-  <si>
-    <t>55 490,000</t>
-  </si>
-  <si>
-    <t>9 360,000</t>
-  </si>
-  <si>
-    <t>TOMINI ABILITY</t>
-  </si>
-  <si>
-    <t>55 113,000</t>
-  </si>
-  <si>
-    <t>30.08.2020</t>
-  </si>
-  <si>
-    <t>TBN</t>
-  </si>
-  <si>
-    <t>KZP EXPO</t>
-  </si>
-  <si>
-    <t>TAMARACK</t>
-  </si>
-  <si>
     <t>DORIC</t>
-  </si>
-  <si>
-    <t>CPT DIMITRIOS S</t>
-  </si>
-  <si>
-    <t>POLES</t>
   </si>
 </sst>
 </file>
@@ -1124,11 +1181,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1409,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,10 +1527,10 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1606,326 +1662,326 @@
         <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="E5">
+      <c r="G5">
+        <v>9377688</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5">
-        <v>8418265</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="E6">
+      <c r="G6">
+        <v>9377688</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6">
-        <v>9442574</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" t="s">
-        <v>48</v>
-      </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>9594614</v>
+        <v>9136785</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>9631474</v>
+        <v>8418265</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
         <v>55</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>40</v>
       </c>
       <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>9442574</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" t="s">
         <v>62</v>
       </c>
-      <c r="G9">
-        <v>9460746</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" t="s">
-        <v>66</v>
-      </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>40</v>
       </c>
       <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>9594614</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" t="s">
         <v>67</v>
       </c>
-      <c r="G10">
-        <v>9077903</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="N10" t="s">
         <v>68</v>
       </c>
-      <c r="K10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" t="s">
-        <v>66</v>
-      </c>
       <c r="O10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>40</v>
       </c>
       <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11">
+        <v>9631474</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
         <v>70</v>
       </c>
-      <c r="G11">
-        <v>9118252</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>71</v>
       </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="N11" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -1934,10 +1990,10 @@
         <v>73</v>
       </c>
       <c r="G12">
-        <v>9699335</v>
+        <v>9460746</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -1949,1141 +2005,1183 @@
         <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="O12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>40</v>
       </c>
       <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13">
+        <v>9077903</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
         <v>77</v>
       </c>
-      <c r="G13">
-        <v>9572082</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" t="s">
-        <v>36</v>
-      </c>
       <c r="O13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14">
-        <v>9755696</v>
+        <v>9118252</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
         <v>55</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="N14" t="s">
         <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
         <v>84</v>
       </c>
-      <c r="E15">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15">
+        <v>9699335</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
         <v>85</v>
       </c>
-      <c r="G15">
-        <v>9139256</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="K15" t="s">
         <v>86</v>
       </c>
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" t="s">
         <v>87</v>
       </c>
-      <c r="K15" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
       <c r="N15" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E16">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G16">
-        <v>9460772</v>
+        <v>9572082</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="M16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E17">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G17">
-        <v>9519171</v>
+        <v>9755696</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="L17" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="M17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E18">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G18">
-        <v>9452622</v>
+        <v>9231286</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M18" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E19">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G19">
-        <v>9250177</v>
+        <v>9524700</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E20">
         <v>23</v>
       </c>
       <c r="F20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20">
+        <v>9139256</v>
+      </c>
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" t="s">
         <v>109</v>
       </c>
-      <c r="G20">
-        <v>9542829</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20" t="s">
         <v>110</v>
-      </c>
-      <c r="I20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" t="s">
-        <v>89</v>
-      </c>
-      <c r="M20" t="s">
-        <v>113</v>
-      </c>
-      <c r="N20" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G21">
-        <v>9287778</v>
+        <v>9460772</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K21" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="L21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M21" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="O21" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
         <v>114</v>
       </c>
-      <c r="E22">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>120</v>
-      </c>
       <c r="G22">
-        <v>9339454</v>
+        <v>9519171</v>
       </c>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="L22" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="M22" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="N22" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="O22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G23">
-        <v>9692739</v>
+        <v>9452622</v>
       </c>
       <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" t="s">
         <v>121</v>
       </c>
-      <c r="I23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" t="s">
-        <v>127</v>
-      </c>
-      <c r="K23" t="s">
-        <v>128</v>
-      </c>
       <c r="L23" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="M23" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N23" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="O23" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G24">
-        <v>9340491</v>
+        <v>9250177</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="M24" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N24" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25">
+        <v>9542829</v>
+      </c>
+      <c r="H25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s">
         <v>133</v>
       </c>
-      <c r="G25">
-        <v>9077898</v>
-      </c>
-      <c r="H25" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K25" t="s">
-        <v>64</v>
-      </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="M25" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="N25" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G26">
-        <v>9582960</v>
+        <v>9302803</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="N26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27">
         <v>23</v>
       </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27">
-        <v>22</v>
-      </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G27">
-        <v>9582960</v>
+        <v>9423542</v>
       </c>
       <c r="H27" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="L27" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="M27" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="N27" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="O27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E28">
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G28">
-        <v>9104421</v>
+        <v>9287778</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K28" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="L28" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="N28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E29">
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G29">
-        <v>9104421</v>
+        <v>9339454</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K29" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="L29" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="M29" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="N29" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="O29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E30">
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G30">
-        <v>9174634</v>
+        <v>9692739</v>
       </c>
       <c r="H30" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K30" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="L30" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="M30" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="N30" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="O30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E31">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G31">
-        <v>9127136</v>
+        <v>9340491</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="L31" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="M31" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="N31" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="O31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E32">
         <v>22</v>
       </c>
       <c r="F32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32">
+        <v>9077898</v>
+      </c>
+      <c r="H32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L32" t="s">
+        <v>150</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
         <v>77</v>
       </c>
-      <c r="G32">
-        <v>9572082</v>
-      </c>
-      <c r="H32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" t="s">
-        <v>143</v>
-      </c>
-      <c r="K32" t="s">
-        <v>81</v>
-      </c>
-      <c r="L32" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32" t="s">
-        <v>36</v>
-      </c>
-      <c r="N32" t="s">
-        <v>36</v>
-      </c>
       <c r="O32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33">
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G33">
-        <v>9582518</v>
+        <v>9582960</v>
       </c>
       <c r="H33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K33" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="L33" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="M33" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="N33" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="O33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34">
+        <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G34">
-        <v>9364784</v>
+        <v>9582960</v>
       </c>
       <c r="H34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="K34" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="M34" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="N34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35">
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G35">
-        <v>9594705</v>
+        <v>9104421</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="K35" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="L35" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="M35" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N35" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="O35" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36">
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G36">
-        <v>9729348</v>
+        <v>9104421</v>
       </c>
       <c r="H36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="K36" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="L36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M36" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="N36" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="O36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37">
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G37">
-        <v>9424613</v>
+        <v>9174634</v>
       </c>
       <c r="H37" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="I37" t="s">
         <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K37" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L37" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="M37" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="N37" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="O37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38">
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G38">
-        <v>9424613</v>
+        <v>9127136</v>
       </c>
       <c r="H38" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="I38" t="s">
         <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="K38" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="L38" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="M38" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="N38" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="O38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39">
+        <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="G39">
-        <v>9324148</v>
+        <v>9572082</v>
       </c>
       <c r="H39" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s">
         <v>22</v>
@@ -3092,226 +3190,244 @@
         <v>168</v>
       </c>
       <c r="K39" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="L39" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="M39" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N39" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="O39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40">
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G40">
-        <v>9326330</v>
+        <v>9452593</v>
       </c>
       <c r="H40" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K40" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L40" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="M40" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="N40" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="O40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41">
+        <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G41">
-        <v>9324148</v>
+        <v>9590967</v>
       </c>
       <c r="H41" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K41" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M41" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N41" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="O41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42">
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G42">
-        <v>9324148</v>
+        <v>9748277</v>
       </c>
       <c r="H42" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="I42" t="s">
         <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="K42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L42" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="M42" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="N42" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="O42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F43" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43">
+        <v>9582518</v>
+      </c>
+      <c r="H43" t="s">
         <v>178</v>
       </c>
-      <c r="G43">
-        <v>9801172</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" t="s">
+        <v>120</v>
+      </c>
+      <c r="K43" t="s">
         <v>179</v>
       </c>
-      <c r="I43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>180</v>
       </c>
-      <c r="K43" t="s">
-        <v>48</v>
-      </c>
-      <c r="L43" t="s">
-        <v>65</v>
-      </c>
       <c r="M43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N43" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="O43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G44">
-        <v>9125229</v>
+        <v>9364784</v>
       </c>
       <c r="H44" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K44" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L44" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="M44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N44" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="O44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F45" t="s">
         <v>185</v>
       </c>
       <c r="G45">
-        <v>9142215</v>
+        <v>9594705</v>
       </c>
       <c r="H45" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -3320,1040 +3436,1891 @@
         <v>186</v>
       </c>
       <c r="K45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L45" t="s">
+        <v>180</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" t="s">
         <v>187</v>
       </c>
-      <c r="L45" t="s">
-        <v>148</v>
-      </c>
-      <c r="M45" t="s">
-        <v>152</v>
-      </c>
-      <c r="N45" t="s">
-        <v>36</v>
-      </c>
       <c r="O45" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G46">
-        <v>9781085</v>
+        <v>9729348</v>
       </c>
       <c r="H46" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="K46" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="L46" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="M46" t="s">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="N46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G47">
-        <v>9122899</v>
+        <v>9424613</v>
       </c>
       <c r="H47" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K47" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="L47" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="M47" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="N47" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="O47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F48" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48">
+        <v>9424613</v>
+      </c>
+      <c r="H48" t="s">
         <v>193</v>
       </c>
-      <c r="G48">
-        <v>9446192</v>
-      </c>
-      <c r="H48" t="s">
-        <v>146</v>
-      </c>
       <c r="I48" t="s">
         <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K48" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="L48" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="M48" t="s">
         <v>195</v>
       </c>
       <c r="N48" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="O48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F49" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G49">
-        <v>9446192</v>
+        <v>9324148</v>
       </c>
       <c r="H49" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="I49" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J49" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K49" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="L49" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="M49" t="s">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="N49" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="O49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F50" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G50">
-        <v>9452555</v>
+        <v>9326330</v>
       </c>
       <c r="H50" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="K50" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L50" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="M50" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="N50" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="O50" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F51" t="s">
+        <v>198</v>
+      </c>
+      <c r="G51">
+        <v>9324148</v>
+      </c>
+      <c r="H51" t="s">
         <v>199</v>
       </c>
-      <c r="G51">
-        <v>9470818</v>
-      </c>
-      <c r="H51" t="s">
-        <v>146</v>
-      </c>
       <c r="I51" t="s">
         <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K51" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L51" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="M51" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="N51" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="O51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G52">
-        <v>9452555</v>
+        <v>9324148</v>
       </c>
       <c r="H52" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="I52" t="s">
         <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="K52" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L52" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="M52" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="N52" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="O52" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F53" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="G53">
-        <v>9452555</v>
+        <v>9801172</v>
       </c>
       <c r="H53" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="K53" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L53" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="M53" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="N53" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="O53" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F54" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G54">
-        <v>9618616</v>
+        <v>9125229</v>
       </c>
       <c r="H54" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="I54" t="s">
         <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="K54" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="L54" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="M54" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N54" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F55" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="G55">
-        <v>9151395</v>
+        <v>9142215</v>
       </c>
       <c r="H55" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I55" t="s">
         <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="K55" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="L55" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="M55" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="N55" t="s">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="O55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F56" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G56">
-        <v>9594717</v>
+        <v>9781085</v>
       </c>
       <c r="H56" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="K56" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="L56" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="M56" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="N56" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="O56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F57" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G57">
-        <v>9594717</v>
+        <v>9122899</v>
       </c>
       <c r="H57" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="I57" t="s">
         <v>22</v>
       </c>
       <c r="J57" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="K57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L57" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="M57" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="N57" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="O57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F58" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="G58">
-        <v>9114139</v>
+        <v>9446192</v>
       </c>
       <c r="H58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I58" t="s">
         <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="K58" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="L58" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="M58" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="N58" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F59" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="G59">
-        <v>9159737</v>
+        <v>9446192</v>
       </c>
       <c r="H59" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="K59" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L59" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="M59" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="N59" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F60" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="G60">
-        <v>9749855</v>
+        <v>9452555</v>
       </c>
       <c r="H60" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="L60" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="M60" t="s">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="N60" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O60" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F61" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="G61">
-        <v>9739020</v>
+        <v>9470818</v>
       </c>
       <c r="H61" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="K61" t="s">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="L61" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="M61" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N61" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="O61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F62" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G62">
-        <v>9235232</v>
+        <v>9452555</v>
       </c>
       <c r="H62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I62" t="s">
         <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="K62" t="s">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="L62" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="M62" t="s">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="N62" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O62" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F63" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G63">
-        <v>9113850</v>
+        <v>9452555</v>
       </c>
       <c r="H63" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="K63" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L63" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="M63" t="s">
         <v>26</v>
       </c>
       <c r="N63" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="O63" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F64" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G64">
-        <v>9254575</v>
+        <v>9618616</v>
       </c>
       <c r="H64" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="K64" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="L64" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="M64" t="s">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="N64" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="O64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>226</v>
-      </c>
-      <c r="D65" t="s">
-        <v>227</v>
-      </c>
-      <c r="E65">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="F65" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G65">
-        <v>9448229</v>
+        <v>9151395</v>
+      </c>
+      <c r="H65" t="s">
+        <v>204</v>
       </c>
       <c r="I65" t="s">
         <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="L65" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="M65" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="N65" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="O65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>226</v>
-      </c>
-      <c r="D66" t="s">
-        <v>227</v>
-      </c>
-      <c r="E66">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="F66" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G66">
-        <v>9638147</v>
+        <v>9594717</v>
       </c>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="I66" t="s">
         <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="K66" t="s">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="L66" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="M66" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="N66" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="O66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>226</v>
-      </c>
-      <c r="D67" t="s">
-        <v>227</v>
-      </c>
-      <c r="E67">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="F67" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G67">
-        <v>9727467</v>
+        <v>9594717</v>
       </c>
       <c r="H67" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K67" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L67" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="M67" t="s">
+        <v>102</v>
+      </c>
+      <c r="N67" t="s">
         <v>103</v>
       </c>
-      <c r="N67" t="s">
-        <v>36</v>
-      </c>
       <c r="O67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
-      </c>
-      <c r="D68" t="s">
-        <v>227</v>
-      </c>
-      <c r="E68">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="F68" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G68">
-        <v>9647277</v>
+        <v>9114139</v>
+      </c>
+      <c r="H68" t="s">
+        <v>211</v>
       </c>
       <c r="I68" t="s">
         <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K68" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="L68" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="M68" t="s">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="N68" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="O68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
-      </c>
-      <c r="D69" t="s">
+        <v>176</v>
+      </c>
+      <c r="F69" t="s">
         <v>242</v>
       </c>
-      <c r="E69">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>243</v>
-      </c>
       <c r="G69">
-        <v>8419635</v>
+        <v>9159737</v>
       </c>
       <c r="H69" t="s">
-        <v>244</v>
+        <v>178</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="K69" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="L69" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="M69" t="s">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="N69" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="O69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
-      </c>
-      <c r="D70" t="s">
-        <v>242</v>
-      </c>
-      <c r="E70">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="F70" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G70">
-        <v>9489417</v>
+        <v>9749855</v>
       </c>
       <c r="H70" t="s">
+        <v>178</v>
+      </c>
+      <c r="I70" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
         <v>244</v>
       </c>
-      <c r="I70" t="s">
-        <v>22</v>
-      </c>
-      <c r="J70" t="s">
-        <v>250</v>
-      </c>
       <c r="K70" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="L70" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="M70" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="N70" t="s">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="O70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>176</v>
+      </c>
+      <c r="F71" t="s">
+        <v>245</v>
+      </c>
+      <c r="G71">
+        <v>9300556</v>
+      </c>
+      <c r="H71" t="s">
+        <v>211</v>
+      </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
+        <v>246</v>
+      </c>
+      <c r="K71" t="s">
+        <v>127</v>
+      </c>
+      <c r="L71" t="s">
+        <v>76</v>
+      </c>
+      <c r="M71" t="s">
+        <v>137</v>
+      </c>
+      <c r="N71" t="s">
+        <v>151</v>
+      </c>
+      <c r="O71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>176</v>
+      </c>
+      <c r="F72" t="s">
+        <v>247</v>
+      </c>
+      <c r="G72">
+        <v>9739020</v>
+      </c>
+      <c r="H72" t="s">
+        <v>178</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>248</v>
+      </c>
+      <c r="K72" t="s">
+        <v>249</v>
+      </c>
+      <c r="L72" t="s">
+        <v>180</v>
+      </c>
+      <c r="M72" t="s">
+        <v>195</v>
+      </c>
+      <c r="N72" t="s">
+        <v>196</v>
+      </c>
+      <c r="O72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
+        <v>176</v>
+      </c>
+      <c r="F73" t="s">
+        <v>250</v>
+      </c>
+      <c r="G73">
+        <v>9235232</v>
+      </c>
+      <c r="H73" t="s">
+        <v>211</v>
+      </c>
+      <c r="I73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" t="s">
+        <v>246</v>
+      </c>
+      <c r="K73" t="s">
+        <v>249</v>
+      </c>
+      <c r="L73" t="s">
+        <v>76</v>
+      </c>
+      <c r="M73" t="s">
+        <v>225</v>
+      </c>
+      <c r="N73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>176</v>
+      </c>
+      <c r="F74" t="s">
+        <v>251</v>
+      </c>
+      <c r="G74">
+        <v>9643453</v>
+      </c>
+      <c r="H74" t="s">
+        <v>178</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>252</v>
+      </c>
+      <c r="K74" t="s">
+        <v>249</v>
+      </c>
+      <c r="L74" t="s">
+        <v>180</v>
+      </c>
+      <c r="M74" t="s">
+        <v>93</v>
+      </c>
+      <c r="N74" t="s">
+        <v>37</v>
+      </c>
+      <c r="O74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>176</v>
+      </c>
+      <c r="F75" t="s">
+        <v>253</v>
+      </c>
+      <c r="G75">
+        <v>9113850</v>
+      </c>
+      <c r="H75" t="s">
+        <v>178</v>
+      </c>
+      <c r="I75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" t="s">
+        <v>254</v>
+      </c>
+      <c r="K75" t="s">
+        <v>90</v>
+      </c>
+      <c r="L75" t="s">
+        <v>180</v>
+      </c>
+      <c r="M75" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" t="s">
+        <v>77</v>
+      </c>
+      <c r="O75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>176</v>
+      </c>
+      <c r="F76" t="s">
+        <v>255</v>
+      </c>
+      <c r="G76">
+        <v>9610999</v>
+      </c>
+      <c r="H76" t="s">
+        <v>199</v>
+      </c>
+      <c r="I76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" t="s">
+        <v>186</v>
+      </c>
+      <c r="K76" t="s">
+        <v>90</v>
+      </c>
+      <c r="L76" t="s">
+        <v>256</v>
+      </c>
+      <c r="M76" t="s">
+        <v>257</v>
+      </c>
+      <c r="N76" t="s">
+        <v>258</v>
+      </c>
+      <c r="O76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>176</v>
+      </c>
+      <c r="F77" t="s">
+        <v>259</v>
+      </c>
+      <c r="G77">
+        <v>9254575</v>
+      </c>
+      <c r="H77" t="s">
+        <v>211</v>
+      </c>
+      <c r="I77" t="s">
+        <v>52</v>
+      </c>
+      <c r="J77" t="s">
+        <v>246</v>
+      </c>
+      <c r="K77" t="s">
+        <v>90</v>
+      </c>
+      <c r="L77" t="s">
+        <v>76</v>
+      </c>
+      <c r="M77" t="s">
+        <v>260</v>
+      </c>
+      <c r="N77" t="s">
+        <v>261</v>
+      </c>
+      <c r="O77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>36</v>
+      </c>
+      <c r="C78" t="s">
+        <v>176</v>
+      </c>
+      <c r="F78" t="s">
+        <v>262</v>
+      </c>
+      <c r="G78">
+        <v>9583691</v>
+      </c>
+      <c r="H78" t="s">
+        <v>178</v>
+      </c>
+      <c r="I78" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>263</v>
+      </c>
+      <c r="K78" t="s">
+        <v>167</v>
+      </c>
+      <c r="L78" t="s">
+        <v>180</v>
+      </c>
+      <c r="M78" t="s">
+        <v>264</v>
+      </c>
+      <c r="N78" t="s">
+        <v>37</v>
+      </c>
+      <c r="O78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>37</v>
+      </c>
+      <c r="C79" t="s">
+        <v>176</v>
+      </c>
+      <c r="F79" t="s">
+        <v>265</v>
+      </c>
+      <c r="G79">
+        <v>9084255</v>
+      </c>
+      <c r="H79" t="s">
+        <v>211</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
+        <v>163</v>
+      </c>
+      <c r="K79" t="s">
+        <v>167</v>
+      </c>
+      <c r="L79" t="s">
+        <v>76</v>
+      </c>
+      <c r="M79" t="s">
+        <v>266</v>
+      </c>
+      <c r="N79" t="s">
+        <v>37</v>
+      </c>
+      <c r="O79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>38</v>
+      </c>
+      <c r="C80" t="s">
+        <v>176</v>
+      </c>
+      <c r="F80" t="s">
+        <v>267</v>
+      </c>
+      <c r="G80">
+        <v>9114543</v>
+      </c>
+      <c r="H80" t="s">
+        <v>178</v>
+      </c>
+      <c r="I80" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" t="s">
+        <v>214</v>
+      </c>
+      <c r="K80" t="s">
+        <v>92</v>
+      </c>
+      <c r="L80" t="s">
+        <v>180</v>
+      </c>
+      <c r="M80" t="s">
+        <v>268</v>
+      </c>
+      <c r="N80" t="s">
+        <v>269</v>
+      </c>
+      <c r="O80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>39</v>
+      </c>
+      <c r="C81" t="s">
+        <v>176</v>
+      </c>
+      <c r="F81" t="s">
+        <v>270</v>
+      </c>
+      <c r="G81">
+        <v>9543768</v>
+      </c>
+      <c r="H81" t="s">
+        <v>178</v>
+      </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" t="s">
+        <v>186</v>
+      </c>
+      <c r="K81" t="s">
+        <v>92</v>
+      </c>
+      <c r="L81" t="s">
+        <v>180</v>
+      </c>
+      <c r="M81" t="s">
+        <v>67</v>
+      </c>
+      <c r="N81" t="s">
+        <v>68</v>
+      </c>
+      <c r="O81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>40</v>
+      </c>
+      <c r="C82" t="s">
+        <v>176</v>
+      </c>
+      <c r="F82" t="s">
+        <v>271</v>
+      </c>
+      <c r="G82">
+        <v>9712943</v>
+      </c>
+      <c r="H82" t="s">
+        <v>199</v>
+      </c>
+      <c r="I82" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" t="s">
+        <v>157</v>
+      </c>
+      <c r="K82" t="s">
+        <v>133</v>
+      </c>
+      <c r="L82" t="s">
+        <v>201</v>
+      </c>
+      <c r="M82" t="s">
+        <v>137</v>
+      </c>
+      <c r="N82" t="s">
+        <v>37</v>
+      </c>
+      <c r="O82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>41</v>
+      </c>
+      <c r="C83" t="s">
+        <v>176</v>
+      </c>
+      <c r="F83" t="s">
+        <v>272</v>
+      </c>
+      <c r="G83">
+        <v>9279836</v>
+      </c>
+      <c r="H83" t="s">
+        <v>199</v>
+      </c>
+      <c r="I83" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" t="s">
+        <v>273</v>
+      </c>
+      <c r="K83" t="s">
+        <v>133</v>
+      </c>
+      <c r="L83" t="s">
+        <v>274</v>
+      </c>
+      <c r="M83" t="s">
+        <v>155</v>
+      </c>
+      <c r="N83" t="s">
+        <v>175</v>
+      </c>
+      <c r="O83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>275</v>
+      </c>
+      <c r="D84" t="s">
+        <v>276</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>277</v>
+      </c>
+      <c r="G84">
+        <v>9448229</v>
+      </c>
+      <c r="I84" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" t="s">
+        <v>278</v>
+      </c>
+      <c r="K84" t="s">
+        <v>145</v>
+      </c>
+      <c r="L84" t="s">
+        <v>201</v>
+      </c>
+      <c r="M84" t="s">
+        <v>72</v>
+      </c>
+      <c r="N84" t="s">
+        <v>220</v>
+      </c>
+      <c r="O84" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>275</v>
+      </c>
+      <c r="D85" t="s">
+        <v>276</v>
+      </c>
+      <c r="E85">
         <v>3</v>
       </c>
-      <c r="C71" t="s">
-        <v>241</v>
-      </c>
-      <c r="D71" t="s">
-        <v>242</v>
-      </c>
-      <c r="E71">
-        <v>8</v>
-      </c>
-      <c r="F71" t="s">
-        <v>253</v>
-      </c>
-      <c r="G71">
-        <v>9747041</v>
-      </c>
-      <c r="H71" t="s">
-        <v>244</v>
-      </c>
-      <c r="I71" t="s">
-        <v>22</v>
-      </c>
-      <c r="J71" t="s">
-        <v>92</v>
-      </c>
-      <c r="K71" t="s">
-        <v>142</v>
-      </c>
-      <c r="L71" t="s">
-        <v>246</v>
-      </c>
-      <c r="M71" t="s">
-        <v>36</v>
-      </c>
-      <c r="N71" t="s">
-        <v>36</v>
-      </c>
-      <c r="O71" t="s">
-        <v>36</v>
+      <c r="F85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G85">
+        <v>9638147</v>
+      </c>
+      <c r="H85" t="s">
+        <v>115</v>
+      </c>
+      <c r="I85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" t="s">
+        <v>263</v>
+      </c>
+      <c r="K85" t="s">
+        <v>280</v>
+      </c>
+      <c r="L85" t="s">
+        <v>201</v>
+      </c>
+      <c r="M85" t="s">
+        <v>281</v>
+      </c>
+      <c r="N85" t="s">
+        <v>282</v>
+      </c>
+      <c r="O85" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>275</v>
+      </c>
+      <c r="D86" t="s">
+        <v>276</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>283</v>
+      </c>
+      <c r="G86">
+        <v>9727467</v>
+      </c>
+      <c r="H86" t="s">
+        <v>284</v>
+      </c>
+      <c r="I86" t="s">
+        <v>52</v>
+      </c>
+      <c r="J86" t="s">
+        <v>285</v>
+      </c>
+      <c r="K86" t="s">
+        <v>71</v>
+      </c>
+      <c r="L86" t="s">
+        <v>201</v>
+      </c>
+      <c r="M86" t="s">
+        <v>122</v>
+      </c>
+      <c r="N86" t="s">
+        <v>123</v>
+      </c>
+      <c r="O86" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>275</v>
+      </c>
+      <c r="D87" t="s">
+        <v>276</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>286</v>
+      </c>
+      <c r="G87">
+        <v>9647277</v>
+      </c>
+      <c r="I87" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" t="s">
+        <v>287</v>
+      </c>
+      <c r="K87" t="s">
+        <v>234</v>
+      </c>
+      <c r="L87" t="s">
+        <v>201</v>
+      </c>
+      <c r="M87" t="s">
+        <v>44</v>
+      </c>
+      <c r="N87" t="s">
+        <v>288</v>
+      </c>
+      <c r="O87" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>275</v>
+      </c>
+      <c r="D88" t="s">
+        <v>276</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>289</v>
+      </c>
+      <c r="G88">
+        <v>9254989</v>
+      </c>
+      <c r="H88" t="s">
+        <v>115</v>
+      </c>
+      <c r="I88" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" t="s">
+        <v>290</v>
+      </c>
+      <c r="K88" t="s">
+        <v>173</v>
+      </c>
+      <c r="L88" t="s">
+        <v>34</v>
+      </c>
+      <c r="M88" t="s">
+        <v>67</v>
+      </c>
+      <c r="N88" t="s">
+        <v>68</v>
+      </c>
+      <c r="O88" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>275</v>
+      </c>
+      <c r="D89" t="s">
+        <v>276</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>277</v>
+      </c>
+      <c r="G89">
+        <v>9448229</v>
+      </c>
+      <c r="I89" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" t="s">
+        <v>278</v>
+      </c>
+      <c r="K89" t="s">
+        <v>145</v>
+      </c>
+      <c r="L89" t="s">
+        <v>201</v>
+      </c>
+      <c r="M89" t="s">
+        <v>72</v>
+      </c>
+      <c r="N89" t="s">
+        <v>220</v>
+      </c>
+      <c r="O89" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" t="s">
+        <v>276</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>279</v>
+      </c>
+      <c r="G90">
+        <v>9638147</v>
+      </c>
+      <c r="H90" t="s">
+        <v>115</v>
+      </c>
+      <c r="I90" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" t="s">
+        <v>263</v>
+      </c>
+      <c r="K90" t="s">
+        <v>280</v>
+      </c>
+      <c r="L90" t="s">
+        <v>201</v>
+      </c>
+      <c r="M90" t="s">
+        <v>281</v>
+      </c>
+      <c r="N90" t="s">
+        <v>282</v>
+      </c>
+      <c r="O90" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>275</v>
+      </c>
+      <c r="D91" t="s">
+        <v>276</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>283</v>
+      </c>
+      <c r="G91">
+        <v>9727467</v>
+      </c>
+      <c r="H91" t="s">
+        <v>284</v>
+      </c>
+      <c r="I91" t="s">
+        <v>52</v>
+      </c>
+      <c r="J91" t="s">
+        <v>285</v>
+      </c>
+      <c r="K91" t="s">
+        <v>71</v>
+      </c>
+      <c r="L91" t="s">
+        <v>201</v>
+      </c>
+      <c r="M91" t="s">
+        <v>122</v>
+      </c>
+      <c r="N91" t="s">
+        <v>123</v>
+      </c>
+      <c r="O91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" t="s">
+        <v>276</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>286</v>
+      </c>
+      <c r="G92">
+        <v>9647277</v>
+      </c>
+      <c r="I92" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" t="s">
+        <v>287</v>
+      </c>
+      <c r="K92" t="s">
+        <v>234</v>
+      </c>
+      <c r="L92" t="s">
+        <v>201</v>
+      </c>
+      <c r="M92" t="s">
+        <v>44</v>
+      </c>
+      <c r="N92" t="s">
+        <v>288</v>
+      </c>
+      <c r="O92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93" t="s">
+        <v>276</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>289</v>
+      </c>
+      <c r="G93">
+        <v>9254989</v>
+      </c>
+      <c r="H93" t="s">
+        <v>115</v>
+      </c>
+      <c r="I93" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" t="s">
+        <v>290</v>
+      </c>
+      <c r="K93" t="s">
+        <v>173</v>
+      </c>
+      <c r="L93" t="s">
+        <v>34</v>
+      </c>
+      <c r="M93" t="s">
+        <v>67</v>
+      </c>
+      <c r="N93" t="s">
+        <v>68</v>
+      </c>
+      <c r="O93" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4363,10 +5330,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4413,10 +5380,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
@@ -4425,7 +5392,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4433,40 +5400,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="G2">
-        <v>9377688</v>
+        <v>9311529</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="I2" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J2" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="K2" t="s">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="N2" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4474,40 +5441,34 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="G3">
-        <v>9231286</v>
+        <v>9218387</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="I3" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4515,40 +5476,34 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="F4" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="G4">
-        <v>9302803</v>
+        <v>9644548</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="I4" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -4556,807 +5511,667 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="G5">
-        <v>9452593</v>
+        <v>9666429</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="I5" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="J5" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>298</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="G6">
-        <v>9543768</v>
+        <v>9584205</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="I6" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J6" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="G7">
-        <v>9712943</v>
+        <v>9700196</v>
       </c>
       <c r="H7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="I7" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="N7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="G8">
-        <v>9300556</v>
+        <v>9591753</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="I8" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J8" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="K8" t="s">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>124</v>
+        <v>304</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F9" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G9">
-        <v>9218387</v>
+        <v>9133771</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I9" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J9" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="K9" t="s">
-        <v>268</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F10" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="G10">
-        <v>9279836</v>
+        <v>9511820</v>
       </c>
       <c r="H10" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="I10" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J10" t="s">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>268</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="N10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F11" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="G11">
-        <v>9610999</v>
+        <v>8400218</v>
       </c>
       <c r="H11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11" t="s">
+        <v>292</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
         <v>167</v>
       </c>
-      <c r="I11" t="s">
-        <v>255</v>
-      </c>
-      <c r="J11" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" t="s">
-        <v>268</v>
-      </c>
       <c r="M11" t="s">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="N11" t="s">
-        <v>274</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F12" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="G12">
-        <v>9583691</v>
+        <v>9214331</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I12" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J12" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="M12" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="N12" t="s">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F13" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="G13">
-        <v>9643453</v>
+        <v>9123960</v>
       </c>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="I13" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J13" t="s">
-        <v>278</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="M13" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="N13" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="G14">
-        <v>9644548</v>
+        <v>9757929</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I14" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J14" t="s">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F15" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="G15">
-        <v>9084255</v>
+        <v>9364825</v>
       </c>
       <c r="H15" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="I15" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M15" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="N15" t="s">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F16" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="G16">
-        <v>9666429</v>
+        <v>9425679</v>
+      </c>
+      <c r="H16" t="s">
+        <v>211</v>
       </c>
       <c r="I16" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J16" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="M16" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F17" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="G17">
-        <v>9584205</v>
+        <v>9866706</v>
       </c>
       <c r="H17" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="I17" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="K17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M17" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="N17" t="s">
-        <v>285</v>
+        <v>37</v>
       </c>
       <c r="O17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F18" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="G18">
-        <v>9700196</v>
+        <v>9492397</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I18" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="M18" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="G19">
-        <v>9591753</v>
+        <v>9620621</v>
       </c>
       <c r="H19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I19" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J19" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="K19" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="N19" t="s">
-        <v>288</v>
+        <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="G20">
-        <v>9114543</v>
+        <v>9311153</v>
       </c>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="I20" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J20" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="K20" t="s">
-        <v>291</v>
+        <v>173</v>
       </c>
       <c r="M20" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="N20" t="s">
-        <v>292</v>
+        <v>37</v>
       </c>
       <c r="O20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="G21">
-        <v>9133771</v>
+        <v>9125566</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="I21" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="K21" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="M21" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="N21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F22" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="G22">
-        <v>9511820</v>
+        <v>9389239</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="I22" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="M22" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>275</v>
+      </c>
+      <c r="D23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="G23">
-        <v>8400218</v>
-      </c>
-      <c r="H23" t="s">
-        <v>179</v>
+        <v>9221592</v>
       </c>
       <c r="I23" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="J23" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="K23" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="M23" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="N23" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="O23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" t="s">
-        <v>296</v>
-      </c>
-      <c r="G24">
-        <v>9214331</v>
-      </c>
-      <c r="H24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I24" t="s">
-        <v>255</v>
-      </c>
-      <c r="J24" t="s">
-        <v>220</v>
-      </c>
-      <c r="K24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M24" t="s">
-        <v>148</v>
-      </c>
-      <c r="N24" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" t="s">
-        <v>297</v>
-      </c>
-      <c r="G25">
-        <v>9123960</v>
-      </c>
-      <c r="H25" t="s">
-        <v>179</v>
-      </c>
-      <c r="I25" t="s">
-        <v>255</v>
-      </c>
-      <c r="J25" t="s">
-        <v>290</v>
-      </c>
-      <c r="K25" t="s">
-        <v>81</v>
-      </c>
-      <c r="M25" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" t="s">
-        <v>298</v>
-      </c>
-      <c r="G26">
-        <v>9757929</v>
-      </c>
-      <c r="H26" t="s">
-        <v>146</v>
-      </c>
-      <c r="I26" t="s">
-        <v>255</v>
-      </c>
-      <c r="J26" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" t="s">
-        <v>112</v>
-      </c>
-      <c r="M26" t="s">
-        <v>148</v>
-      </c>
-      <c r="N26" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" t="s">
-        <v>299</v>
-      </c>
-      <c r="G27">
-        <v>9364825</v>
-      </c>
-      <c r="H27" t="s">
-        <v>179</v>
-      </c>
-      <c r="I27" t="s">
-        <v>255</v>
-      </c>
-      <c r="J27" t="s">
-        <v>154</v>
-      </c>
-      <c r="K27" t="s">
-        <v>300</v>
-      </c>
-      <c r="M27" t="s">
-        <v>65</v>
-      </c>
-      <c r="N27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5369,7 +6184,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD15"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5407,10 +6222,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
@@ -5419,7 +6234,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5427,40 +6242,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="G2">
-        <v>9590967</v>
+        <v>9592094</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J2" t="s">
-        <v>302</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -5468,40 +6283,40 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E3">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="G3">
-        <v>9748277</v>
+        <v>9446726</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5511,10 +6326,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5560,10 +6375,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
@@ -5572,918 +6387,891 @@
         <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>111</v>
       </c>
       <c r="G2">
-        <v>1111111</v>
+        <v>9460772</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="J2" t="s">
-        <v>306</v>
+        <v>157</v>
       </c>
       <c r="K2" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="G3">
-        <v>9150743</v>
+        <v>9400150</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="J3" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="K3" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="M3" t="s">
         <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="G4">
-        <v>9597111</v>
+        <v>9374349</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="G5">
-        <v>9151400</v>
+        <v>9008079</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>262</v>
+        <v>332</v>
       </c>
       <c r="J5" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="K5" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="G6">
-        <v>9104158</v>
+        <v>9151400</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="J6" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="K6" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="G7">
-        <v>9218399</v>
+        <v>9597111</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="J7" t="s">
-        <v>317</v>
+        <v>132</v>
       </c>
       <c r="K7" t="s">
-        <v>315</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="G8">
         <v>9295567</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J8" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="K8" t="s">
-        <v>320</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="G9">
-        <v>9087233</v>
+        <v>9218399</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="J9" t="s">
-        <v>212</v>
+        <v>342</v>
       </c>
       <c r="K9" t="s">
-        <v>322</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="G10">
-        <v>9524700</v>
+        <v>9104158</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J10" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="K10" t="s">
-        <v>322</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E11">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G11">
-        <v>9107681</v>
+        <v>9087233</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="K11" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="M11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E12">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="G12">
-        <v>9460760</v>
+        <v>9150743</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>348</v>
       </c>
       <c r="K12" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="M12" t="s">
-        <v>273</v>
+        <v>30</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E13">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="G13">
-        <v>9423542</v>
+        <v>9107681</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J13" t="s">
-        <v>329</v>
+        <v>107</v>
       </c>
       <c r="K13" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M13" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E14">
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="G14">
-        <v>9592094</v>
+        <v>9460760</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J14" t="s">
-        <v>329</v>
+        <v>107</v>
       </c>
       <c r="K14" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M14" t="s">
-        <v>93</v>
+        <v>256</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="O14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E15">
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="G15">
-        <v>9311529</v>
-      </c>
-      <c r="H15" t="s">
-        <v>96</v>
+        <v>9768928</v>
       </c>
       <c r="I15" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J15" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="K15" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M15" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G16">
-        <v>9304215</v>
+        <v>9597111</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="I16" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J16" t="s">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s">
-        <v>307</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E17">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="G17">
-        <v>9304215</v>
+        <v>9698941</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="J17" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="K17" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E18">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="G18">
-        <v>9446726</v>
+        <v>9304215</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="I18" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J18" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="K18" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="M18" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E19">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="G19">
-        <v>9597111</v>
+        <v>9304215</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="I19" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>358</v>
       </c>
       <c r="K19" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="M19" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E20">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J20" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="K20" t="s">
-        <v>340</v>
+        <v>101</v>
       </c>
       <c r="M20" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>227</v>
+        <v>141</v>
+      </c>
+      <c r="E21">
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="G21">
-        <v>9261970</v>
+        <v>9412945</v>
+      </c>
+      <c r="H21" t="s">
+        <v>115</v>
       </c>
       <c r="I21" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J21" t="s">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="K21" t="s">
-        <v>307</v>
+        <v>101</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="N21" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="F22" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="G22">
-        <v>9541837</v>
+        <v>9261970</v>
       </c>
       <c r="I22" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J22" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="K22" t="s">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="M22" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="O22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="F23" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="G23">
-        <v>9221592</v>
+        <v>9541837</v>
       </c>
       <c r="I23" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="J23" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="M23" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="O23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F24" t="s">
-        <v>346</v>
-      </c>
-      <c r="G24">
-        <v>9254989</v>
-      </c>
-      <c r="I24" t="s">
-        <v>255</v>
-      </c>
-      <c r="J24" t="s">
-        <v>270</v>
-      </c>
-      <c r="K24" t="s">
-        <v>330</v>
-      </c>
-      <c r="M24" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24" t="s">
-        <v>56</v>
-      </c>
-      <c r="O24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Logistic OS/TempDocs/Test.xlsx
+++ b/Logistic OS/TempDocs/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Loading Completed" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="407">
   <si>
     <t>№</t>
   </si>
@@ -75,6 +75,57 @@
     <t>Port of Discharge</t>
   </si>
   <si>
+    <t>NOVOROSSIYSK</t>
+  </si>
+  <si>
+    <t>KSK</t>
+  </si>
+  <si>
+    <t>SC DELO</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>01.09.2020</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NKHP</t>
+  </si>
+  <si>
+    <t>TRANSAGENT</t>
+  </si>
+  <si>
+    <t>UNITED GRAIN COMPANY</t>
+  </si>
+  <si>
+    <t>KAVKAZ ROADS</t>
+  </si>
+  <si>
+    <t>LINTER</t>
+  </si>
+  <si>
+    <t>RIF TD</t>
+  </si>
+  <si>
+    <t>40 000,000</t>
+  </si>
+  <si>
+    <t>TAMAN</t>
+  </si>
+  <si>
+    <t>ZTKT</t>
+  </si>
+  <si>
+    <t>MIROGROUP RESOURCES</t>
+  </si>
+  <si>
     <t>TUAPSE</t>
   </si>
   <si>
@@ -84,15 +135,333 @@
     <t>9A</t>
   </si>
   <si>
+    <t>EQUINOX EAGLE</t>
+  </si>
+  <si>
+    <t>UNIVERSAL FORWARDER / TUAPSE</t>
+  </si>
+  <si>
+    <t>N/A GR WHEAT</t>
+  </si>
+  <si>
+    <t>57 000,000</t>
+  </si>
+  <si>
+    <t>31.08.2020</t>
+  </si>
+  <si>
+    <t>QUEEN JUDI</t>
+  </si>
+  <si>
+    <t>30 850,000</t>
+  </si>
+  <si>
+    <t>CARGILL</t>
+  </si>
+  <si>
+    <t>NGT</t>
+  </si>
+  <si>
+    <t>WP BRAVE</t>
+  </si>
+  <si>
+    <t>55 676,000</t>
+  </si>
+  <si>
+    <t>ARTIS-AGRO EXPORT</t>
+  </si>
+  <si>
+    <t>PARANA WARRIOR</t>
+  </si>
+  <si>
+    <t>SKAT-UNIVERSAL</t>
+  </si>
+  <si>
+    <t>27 136,000</t>
+  </si>
+  <si>
+    <t>02.09.2020</t>
+  </si>
+  <si>
+    <t>OCEAN ANG</t>
+  </si>
+  <si>
+    <t>KAVKAZ LOGISTIC AGENCY</t>
+  </si>
+  <si>
+    <t>60 000,000</t>
+  </si>
+  <si>
+    <t>ASTON</t>
+  </si>
+  <si>
+    <t>KAPETAN SIDERIS</t>
+  </si>
+  <si>
+    <t>50 000,000</t>
+  </si>
+  <si>
+    <t>DRAFTDODGER</t>
+  </si>
+  <si>
+    <t>BOYANG GARNET</t>
+  </si>
+  <si>
+    <t>70 000,000</t>
+  </si>
+  <si>
+    <t>AKRA</t>
+  </si>
+  <si>
+    <t>30 000,000</t>
+  </si>
+  <si>
+    <t>24.08.2020</t>
+  </si>
+  <si>
+    <t>MOZAMBIQUE</t>
+  </si>
+  <si>
+    <t>BERGE TATEYAMA</t>
+  </si>
+  <si>
+    <t>26.08.2020</t>
+  </si>
+  <si>
+    <t>DORO</t>
+  </si>
+  <si>
+    <t>55 000,000</t>
+  </si>
+  <si>
+    <t>SOUTH AFRICA</t>
+  </si>
+  <si>
+    <t>CORAL AMETHYST</t>
+  </si>
+  <si>
+    <t>65 000,000</t>
+  </si>
+  <si>
+    <t>27.08.2020</t>
+  </si>
+  <si>
+    <t>NILOS</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>YM EFFORT</t>
+  </si>
+  <si>
+    <t>28.08.2020</t>
+  </si>
+  <si>
+    <t>KESTREL S</t>
+  </si>
+  <si>
+    <t>30.08.2020</t>
+  </si>
+  <si>
+    <t>EMMAKRIS I</t>
+  </si>
+  <si>
+    <t>BARLEY</t>
+  </si>
+  <si>
+    <t>58 100,000</t>
+  </si>
+  <si>
+    <t>AMINEH M</t>
+  </si>
+  <si>
+    <t>CORN</t>
+  </si>
+  <si>
+    <t>16 500,000</t>
+  </si>
+  <si>
+    <t>WADI ALYARMOUK</t>
+  </si>
+  <si>
+    <t>52 260,000</t>
+  </si>
+  <si>
+    <t>SEABEE / MT</t>
+  </si>
+  <si>
+    <t>33 000,000</t>
+  </si>
+  <si>
+    <t>CONCERN POKROVSKIY TD</t>
+  </si>
+  <si>
+    <t>WADI ALKARM</t>
+  </si>
+  <si>
+    <t>63 000,000</t>
+  </si>
+  <si>
+    <t>ZERNO-TRADE</t>
+  </si>
+  <si>
+    <t>EGYPT</t>
+  </si>
+  <si>
+    <t>OCEAN SCALLION</t>
+  </si>
+  <si>
+    <t>GLOBAL OCEAN SERVICE</t>
+  </si>
+  <si>
+    <t>AST COMPANY M APK</t>
+  </si>
+  <si>
+    <t>24 600,000</t>
+  </si>
+  <si>
+    <t>MONTREUX</t>
+  </si>
+  <si>
+    <t>31 300,000</t>
+  </si>
+  <si>
+    <t>TAMARACK</t>
+  </si>
+  <si>
+    <t>45 000,000</t>
+  </si>
+  <si>
+    <t>GEMCORP COMMODITIES TRADING RUS</t>
+  </si>
+  <si>
+    <t>NIGERIA</t>
+  </si>
+  <si>
+    <t>FATMA SARI</t>
+  </si>
+  <si>
+    <t>HTK DISCOVERY</t>
+  </si>
+  <si>
+    <t>31 500,000</t>
+  </si>
+  <si>
+    <t>03.09.2020</t>
+  </si>
+  <si>
+    <t>MANUELA E</t>
+  </si>
+  <si>
+    <t>PEAS</t>
+  </si>
+  <si>
+    <t>5 000,000</t>
+  </si>
+  <si>
+    <t>05.09.2020</t>
+  </si>
+  <si>
+    <t>M IZMIR</t>
+  </si>
+  <si>
+    <t>6 000,000</t>
+  </si>
+  <si>
+    <t>FAIT KUBAN</t>
+  </si>
+  <si>
+    <t>GANOSAYA</t>
+  </si>
+  <si>
+    <t>14 700,000</t>
+  </si>
+  <si>
+    <t>10.09.2020</t>
+  </si>
+  <si>
+    <t>KP ALBATROSS</t>
+  </si>
+  <si>
+    <t>ALI S</t>
+  </si>
+  <si>
+    <t>6 500,000</t>
+  </si>
+  <si>
+    <t>20.09.2020</t>
+  </si>
+  <si>
+    <t>WADI SUDR</t>
+  </si>
+  <si>
+    <t>06.09.2020</t>
+  </si>
+  <si>
+    <t>NIKOLAOS GS</t>
+  </si>
+  <si>
+    <t>27 000,000</t>
+  </si>
+  <si>
+    <t>07.09.2020</t>
+  </si>
+  <si>
+    <t>TAIYUAN</t>
+  </si>
+  <si>
+    <t>35 534,000</t>
+  </si>
+  <si>
+    <t>11.09.2020</t>
+  </si>
+  <si>
+    <t>HARROW</t>
+  </si>
+  <si>
+    <t>55 490,000</t>
+  </si>
+  <si>
+    <t>9 360,000</t>
+  </si>
+  <si>
+    <t>WADI ALARISH</t>
+  </si>
+  <si>
+    <t>08.09.2020</t>
+  </si>
+  <si>
+    <t>PANAMAX OSTRIA</t>
+  </si>
+  <si>
+    <t>67 000,000</t>
+  </si>
+  <si>
+    <t>LEO OCEAN</t>
+  </si>
+  <si>
+    <t>ADRIANA ROSE</t>
+  </si>
+  <si>
+    <t>12.09.2020</t>
+  </si>
+  <si>
+    <t>GLENCORE AGRICULTURE IGC</t>
+  </si>
+  <si>
+    <t>SUDAN</t>
+  </si>
+  <si>
+    <t>RANGAKU</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
     <t>GLOBAL BRAVE</t>
   </si>
   <si>
-    <t>UNIVERSAL FORWARDER / TUAPSE</t>
-  </si>
-  <si>
-    <t>wheat</t>
-  </si>
-  <si>
     <t>18 000,000</t>
   </si>
   <si>
@@ -102,10 +471,7 @@
     <t>SIERENTZ GLOBAL MERCHANTS UKRAINE</t>
   </si>
   <si>
-    <t>EGYPT</t>
-  </si>
-  <si>
-    <t>EL DEKHEILA / EG EDK</t>
+    <t xml:space="preserve">EL DEKHEILA </t>
   </si>
   <si>
     <t>UNION TRADE COMPANY</t>
@@ -114,9 +480,6 @@
     <t>31 000,000</t>
   </si>
   <si>
-    <t>ARTIS-AGRO EXPORT</t>
-  </si>
-  <si>
     <t>MONTEREY BAY</t>
   </si>
   <si>
@@ -126,16 +489,10 @@
     <t>16.08.2020</t>
   </si>
   <si>
-    <t>GEMCORP COMMODITIES TRADING RUS</t>
-  </si>
-  <si>
     <t>KENYA</t>
   </si>
   <si>
-    <t>MOMBASA / KE MBA</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t xml:space="preserve">MOMBASA </t>
   </si>
   <si>
     <t>MEDI BANGKOK</t>
@@ -162,36 +519,18 @@
     <t>LION</t>
   </si>
   <si>
-    <t>27 000,000</t>
-  </si>
-  <si>
     <t>29.08.2020</t>
   </si>
   <si>
-    <t>NOVOROSSIYSK</t>
-  </si>
-  <si>
-    <t>KSK</t>
-  </si>
-  <si>
     <t>MERRY M</t>
   </si>
   <si>
-    <t>SC DELO</t>
-  </si>
-  <si>
     <t>barley</t>
   </si>
   <si>
-    <t>6 500,000</t>
-  </si>
-  <si>
     <t>02.08.2020</t>
   </si>
   <si>
-    <t>FAIT KUBAN</t>
-  </si>
-  <si>
     <t>LIBYA</t>
   </si>
   <si>
@@ -210,7 +549,7 @@
     <t>ANGOLA</t>
   </si>
   <si>
-    <t>LOBITO / AO LOB</t>
+    <t xml:space="preserve">LOBITO </t>
   </si>
   <si>
     <t>STAR DORADO</t>
@@ -222,13 +561,7 @@
     <t>07.08.2020</t>
   </si>
   <si>
-    <t>CARGILL</t>
-  </si>
-  <si>
-    <t>NIGERIA</t>
-  </si>
-  <si>
-    <t>LAGOS / NG LOS</t>
+    <t xml:space="preserve">LAGOS </t>
   </si>
   <si>
     <t>YI CHUN 15</t>
@@ -240,9 +573,6 @@
     <t>11.08.2020</t>
   </si>
   <si>
-    <t>SOUTH AFRICA</t>
-  </si>
-  <si>
     <t>WADI TIBA</t>
   </si>
   <si>
@@ -252,13 +582,7 @@
     <t>13.08.2020</t>
   </si>
   <si>
-    <t>RIF TD</t>
-  </si>
-  <si>
-    <t>EL ISKANDARIYA (ALEXANDRIA) / EG ALY</t>
-  </si>
-  <si>
-    <t>WADI SUDR</t>
+    <t xml:space="preserve">EL ISKANDARIYA (ALEXANDRIA) </t>
   </si>
   <si>
     <t>57 300,000</t>
@@ -273,7 +597,7 @@
     <t>12 000,000</t>
   </si>
   <si>
-    <t>BINGAZI (BENGHAZI) / LY BEN</t>
+    <t xml:space="preserve">BINGAZI (BENGHAZI) </t>
   </si>
   <si>
     <t>NAUTICAL RUNA</t>
@@ -306,7 +630,7 @@
     <t>COTE D'IVOIRE</t>
   </si>
   <si>
-    <t>ABIDJAN / CI ABJ</t>
+    <t xml:space="preserve">ABIDJAN </t>
   </si>
   <si>
     <t>BONITA / LR</t>
@@ -315,70 +639,40 @@
     <t>58 170,000</t>
   </si>
   <si>
-    <t>26.08.2020</t>
-  </si>
-  <si>
-    <t>AST COMPANY M APK</t>
-  </si>
-  <si>
     <t>YASA CANARY</t>
   </si>
   <si>
-    <t>46 970,000</t>
-  </si>
-  <si>
-    <t>30.08.2020</t>
+    <t>47 020,000</t>
   </si>
   <si>
     <t>TURKEY</t>
   </si>
   <si>
-    <t>ISKENDERUN / TR ISK</t>
-  </si>
-  <si>
-    <t>NGT</t>
+    <t xml:space="preserve">ISKENDERUN </t>
   </si>
   <si>
     <t>EDFU</t>
   </si>
   <si>
-    <t>GLOBAL OCEAN SERVICE</t>
-  </si>
-  <si>
-    <t>63 000,000</t>
-  </si>
-  <si>
     <t>05.08.2020</t>
   </si>
   <si>
-    <t>MIROGROUP RESOURCES</t>
-  </si>
-  <si>
     <t>THE GENERAL AUTHORITY FOR SUPPLY COMMODITIES</t>
   </si>
   <si>
-    <t>WADI ALYARMOUK</t>
-  </si>
-  <si>
-    <t>30 000,000</t>
-  </si>
-  <si>
     <t>ARAB MILLS &amp; FOOD INDUSTRIES COMPANY</t>
   </si>
   <si>
     <t>GIOVANNA</t>
   </si>
   <si>
-    <t>SKAT-UNIVERSAL</t>
-  </si>
-  <si>
     <t>31 800,000</t>
   </si>
   <si>
     <t>MAURITANIA</t>
   </si>
   <si>
-    <t>NOUAKCHOTT / MR NKC</t>
+    <t xml:space="preserve">NOUAKCHOTT </t>
   </si>
   <si>
     <t>RYSY</t>
@@ -393,7 +687,7 @@
     <t>SAUDI ARABIA</t>
   </si>
   <si>
-    <t>JEDDAH / SA JED</t>
+    <t xml:space="preserve">JEDDAH </t>
   </si>
   <si>
     <t>SAUDI GRAINS ORGANIZATION SAUDI ARABIA</t>
@@ -408,10 +702,7 @@
     <t>19.08.2020</t>
   </si>
   <si>
-    <t>SUDAN</t>
-  </si>
-  <si>
-    <t>PORT SUDAN / SD PZU</t>
+    <t xml:space="preserve">PORT SUDAN </t>
   </si>
   <si>
     <t>ROMANDIE</t>
@@ -423,9 +714,6 @@
     <t>28 000,000</t>
   </si>
   <si>
-    <t>24.08.2020</t>
-  </si>
-  <si>
     <t>TOGO</t>
   </si>
   <si>
@@ -441,13 +729,10 @@
     <t>LIBERTY</t>
   </si>
   <si>
-    <t>57 000,000</t>
-  </si>
-  <si>
-    <t>28.08.2020</t>
-  </si>
-  <si>
-    <t>NKHP</t>
+    <t>SSI NEMESIS</t>
+  </si>
+  <si>
+    <t>51 375,000</t>
   </si>
   <si>
     <t>GLORY TRADER</t>
@@ -465,19 +750,16 @@
     <t>KUWAIT</t>
   </si>
   <si>
+    <t xml:space="preserve">KUWAIT </t>
+  </si>
+  <si>
     <t>AKIJ HERITAGE</t>
   </si>
   <si>
-    <t>TRANSAGENT</t>
-  </si>
-  <si>
     <t>54 100,000</t>
   </si>
   <si>
-    <t>UNITED GRAIN COMPANY</t>
-  </si>
-  <si>
-    <t>CHITTAGONG / BD CGP</t>
+    <t xml:space="preserve">CHITTAGONG </t>
   </si>
   <si>
     <t>MAGPIE SW</t>
@@ -495,12 +777,6 @@
     <t>AKIJ NOBLE</t>
   </si>
   <si>
-    <t>55 000,000</t>
-  </si>
-  <si>
-    <t>WADI ALARISH</t>
-  </si>
-  <si>
     <t>TATRY</t>
   </si>
   <si>
@@ -543,31 +819,19 @@
     <t>36 676,199</t>
   </si>
   <si>
-    <t>27.08.2020</t>
-  </si>
-  <si>
     <t>PANDA / KY</t>
   </si>
   <si>
-    <t>DAKAR / SN DKR</t>
-  </si>
-  <si>
-    <t>KAVKAZ ROADS</t>
+    <t xml:space="preserve">DAKAR </t>
   </si>
   <si>
     <t>SUDETY</t>
   </si>
   <si>
-    <t>KAVKAZ LOGISTIC AGENCY</t>
-  </si>
-  <si>
     <t>01.08.2020</t>
   </si>
   <si>
-    <t>ASTON</t>
-  </si>
-  <si>
-    <t>JIZAN / SA GIZ</t>
+    <t xml:space="preserve">JIZAN </t>
   </si>
   <si>
     <t>EIDER S</t>
@@ -582,10 +846,7 @@
     <t>COMMON CALYPSO</t>
   </si>
   <si>
-    <t>50 000,000</t>
-  </si>
-  <si>
-    <t>DUMYAT (DAMIETTA) / EG DAM</t>
+    <t xml:space="preserve">DUMYAT (DAMIETTA) </t>
   </si>
   <si>
     <t>CAIRO 3A COMPANY</t>
@@ -597,7 +858,7 @@
     <t>TANZANIA</t>
   </si>
   <si>
-    <t>DAR ES SALAAM / TZ DAR</t>
+    <t xml:space="preserve">DAR ES SALAAM </t>
   </si>
   <si>
     <t>THOR FORTUNE</t>
@@ -612,7 +873,7 @@
     <t>ISRAEL</t>
   </si>
   <si>
-    <t>HAIFA / IL HFA</t>
+    <t xml:space="preserve">HAIFA </t>
   </si>
   <si>
     <t>29 358,000</t>
@@ -627,10 +888,7 @@
     <t>15 000,000</t>
   </si>
   <si>
-    <t>GLENCORE AGRICULTURE IGC</t>
-  </si>
-  <si>
-    <t>CALABAR / NG CBQ</t>
+    <t xml:space="preserve">CALABAR </t>
   </si>
   <si>
     <t>AFRICAN JUNIPER</t>
@@ -645,7 +903,7 @@
     <t>SPAIN</t>
   </si>
   <si>
-    <t>LAS PALMAS / ES LPG</t>
+    <t xml:space="preserve">LAS PALMAS </t>
   </si>
   <si>
     <t>4 561,300</t>
@@ -657,9 +915,6 @@
     <t>FLORENTINE OETKER</t>
   </si>
   <si>
-    <t>LINTER</t>
-  </si>
-  <si>
     <t>60 500,000</t>
   </si>
   <si>
@@ -684,7 +939,7 @@
     <t>56 670,000</t>
   </si>
   <si>
-    <t>DURBAN / ZA DUR</t>
+    <t xml:space="preserve">DURBAN </t>
   </si>
   <si>
     <t>EVOLUTION</t>
@@ -699,9 +954,6 @@
     <t>32 882,000</t>
   </si>
   <si>
-    <t>UAE</t>
-  </si>
-  <si>
     <t>20 822,000</t>
   </si>
   <si>
@@ -732,7 +984,7 @@
     <t>MACHITIS</t>
   </si>
   <si>
-    <t>ASHDOD / IL ASH</t>
+    <t xml:space="preserve">ASHDOD </t>
   </si>
   <si>
     <t>COMMON SPIRIT</t>
@@ -747,24 +999,15 @@
     <t>KRISTINA P</t>
   </si>
   <si>
-    <t>40 000,000</t>
-  </si>
-  <si>
     <t>CAPE SCOTT</t>
   </si>
   <si>
     <t>AMADEUS</t>
   </si>
   <si>
-    <t>70 000,000</t>
-  </si>
-  <si>
     <t>MYTHOS</t>
   </si>
   <si>
-    <t>65 000,000</t>
-  </si>
-  <si>
     <t>THEODORE JR</t>
   </si>
   <si>
@@ -777,6 +1020,9 @@
     <t>FORTUNE TRADER</t>
   </si>
   <si>
+    <t xml:space="preserve">JEBEL ALI </t>
+  </si>
+  <si>
     <t>HANDY STRANGER</t>
   </si>
   <si>
@@ -792,13 +1038,7 @@
     <t>GLOVIS MADRID</t>
   </si>
   <si>
-    <t>ZERNO-TRADE</t>
-  </si>
-  <si>
-    <t>MOZAMBIQUE</t>
-  </si>
-  <si>
-    <t>MAPUTO / MZ MPM</t>
+    <t xml:space="preserve">MAPUTO </t>
   </si>
   <si>
     <t>EMMAKRIS II</t>
@@ -807,52 +1047,94 @@
     <t>JORDAN</t>
   </si>
   <si>
-    <t>AQABA / JO AQB</t>
+    <t xml:space="preserve">AQABA </t>
   </si>
   <si>
     <t>VULLY</t>
   </si>
   <si>
-    <t>33 000,000</t>
-  </si>
-  <si>
     <t>MADAGASCAR</t>
   </si>
   <si>
+    <t xml:space="preserve">TOAMASINA </t>
+  </si>
+  <si>
     <t>INCHCAP</t>
   </si>
   <si>
     <t>SOMALIA</t>
   </si>
   <si>
+    <t xml:space="preserve">BERBERA </t>
+  </si>
+  <si>
     <t>AMAL T</t>
   </si>
   <si>
     <t>LEBANON</t>
   </si>
   <si>
-    <t>TRIPOLI / LB KYE</t>
+    <t xml:space="preserve">TRIPOLI </t>
   </si>
   <si>
     <t>DESERT SPRING</t>
   </si>
   <si>
+    <t>YANGTZE CLASSIC</t>
+  </si>
+  <si>
+    <t>SRI LANKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLOMBO </t>
+  </si>
+  <si>
     <t>PACIFIC TALENT / HK</t>
   </si>
   <si>
     <t>DIMITRIS S</t>
   </si>
   <si>
-    <t>45 000,000</t>
-  </si>
-  <si>
     <t>OUTSPAN INTERNATIONAL</t>
   </si>
   <si>
-    <t>TAMAN</t>
-  </si>
-  <si>
-    <t>ZTKT</t>
+    <t>ANTWERPIA</t>
+  </si>
+  <si>
+    <t>THAILAND</t>
+  </si>
+  <si>
+    <t>AYLA</t>
+  </si>
+  <si>
+    <t>GENCO LOIRE</t>
+  </si>
+  <si>
+    <t>AFRICAN HHB</t>
+  </si>
+  <si>
+    <t>SEAPOWER I</t>
+  </si>
+  <si>
+    <t>63 650,000</t>
+  </si>
+  <si>
+    <t>LBC EARTH</t>
+  </si>
+  <si>
+    <t>ORHAN Y</t>
+  </si>
+  <si>
+    <t>KOMI</t>
+  </si>
+  <si>
+    <t>VIKA</t>
+  </si>
+  <si>
+    <t>IDC DIAMOND</t>
+  </si>
+  <si>
+    <t>TRITON HAWK</t>
   </si>
   <si>
     <t>ULTRA SASKATOON</t>
@@ -870,10 +1152,7 @@
     <t>GUINEA</t>
   </si>
   <si>
-    <t>CONAKRY / GN CKY</t>
-  </si>
-  <si>
-    <t>ADRIANA ROSE</t>
+    <t xml:space="preserve">CONAKRY </t>
   </si>
   <si>
     <t>TAMAN-AGENT</t>
@@ -888,7 +1167,7 @@
     <t>53 000,000</t>
   </si>
   <si>
-    <t>PASIR GUDANG (JOHOR) / MY PGU</t>
+    <t xml:space="preserve">PASIR GUDANG (JOHOR) </t>
   </si>
   <si>
     <t>POLES</t>
@@ -897,229 +1176,73 @@
     <t>46 300,000</t>
   </si>
   <si>
-    <t>SSI NEMESIS</t>
-  </si>
-  <si>
-    <t>N/A GR WHEAT</t>
-  </si>
-  <si>
-    <t>51 375,000</t>
-  </si>
-  <si>
-    <t>EMMAKRIS III</t>
-  </si>
-  <si>
-    <t>10.08.2020</t>
-  </si>
-  <si>
-    <t>LBC EARTH</t>
-  </si>
-  <si>
-    <t>AFRICAN HHB</t>
-  </si>
-  <si>
-    <t>CONGO</t>
-  </si>
-  <si>
-    <t>YANGTZE CLASSIC</t>
-  </si>
-  <si>
-    <t>SRI LANKA</t>
-  </si>
-  <si>
-    <t>KOMI</t>
-  </si>
-  <si>
-    <t>ANTWERPIA</t>
-  </si>
-  <si>
-    <t>60 000,000</t>
-  </si>
-  <si>
-    <t>THAILAND</t>
-  </si>
-  <si>
-    <t>VIKA</t>
-  </si>
-  <si>
-    <t>GENCO LOIRE</t>
-  </si>
-  <si>
-    <t>ORHAN Y</t>
-  </si>
-  <si>
-    <t>SEAPOWER I</t>
-  </si>
-  <si>
-    <t>AYLA</t>
-  </si>
-  <si>
-    <t>AKRA</t>
-  </si>
-  <si>
-    <t>IDC DIAMOND</t>
-  </si>
-  <si>
-    <t>TRITON HAWK</t>
-  </si>
-  <si>
-    <t>BERGE TATEYAMA</t>
-  </si>
-  <si>
-    <t>DORO</t>
-  </si>
-  <si>
-    <t>CORAL AMETHYST</t>
-  </si>
-  <si>
-    <t>NILOS</t>
-  </si>
-  <si>
-    <t>TRUE FRIEND</t>
-  </si>
-  <si>
-    <t>YM EFFORT</t>
-  </si>
-  <si>
     <t>CPT DIMITRIOS S</t>
   </si>
   <si>
-    <t>BARLEY</t>
-  </si>
-  <si>
-    <t>OCEAN SCALLION</t>
-  </si>
-  <si>
-    <t>TOMINI ABILITY</t>
-  </si>
-  <si>
-    <t>55 113,000</t>
-  </si>
-  <si>
-    <t>04.09.2020</t>
-  </si>
-  <si>
-    <t>MANUELA E</t>
-  </si>
-  <si>
-    <t>PEAS</t>
-  </si>
-  <si>
-    <t>5 000,000</t>
-  </si>
-  <si>
-    <t>05.09.2020</t>
-  </si>
-  <si>
-    <t>HTK DISCOVERY</t>
-  </si>
-  <si>
-    <t>07.09.2020</t>
-  </si>
-  <si>
-    <t>M IZMIR</t>
-  </si>
-  <si>
-    <t>CORN</t>
-  </si>
-  <si>
-    <t>6 000,000</t>
-  </si>
-  <si>
-    <t>08.09.2020</t>
-  </si>
-  <si>
-    <t>GANOSAYA</t>
-  </si>
-  <si>
-    <t>14 700,000</t>
-  </si>
-  <si>
-    <t>10.09.2020</t>
-  </si>
-  <si>
-    <t>WP BRAVE</t>
-  </si>
-  <si>
-    <t>QUEEN JUDI</t>
-  </si>
-  <si>
-    <t>30 850,000</t>
-  </si>
-  <si>
-    <t>EMMAKRIS I</t>
-  </si>
-  <si>
-    <t>58 100,000</t>
-  </si>
-  <si>
-    <t>MARAKI K</t>
-  </si>
-  <si>
-    <t>25 600,000</t>
-  </si>
-  <si>
-    <t>FATMA SARI</t>
-  </si>
-  <si>
-    <t>31.08.2020</t>
-  </si>
-  <si>
-    <t>AMINEH M</t>
-  </si>
-  <si>
-    <t>16 500,000</t>
-  </si>
-  <si>
-    <t>WADI ALARAB</t>
-  </si>
-  <si>
-    <t>01.09.2020</t>
-  </si>
-  <si>
-    <t>WADI ALKARM</t>
-  </si>
-  <si>
-    <t>TAIYUAN</t>
-  </si>
-  <si>
-    <t>36 300,000</t>
-  </si>
-  <si>
-    <t>SEABEE / MT</t>
-  </si>
-  <si>
-    <t>HARROW</t>
-  </si>
-  <si>
-    <t>55 490,000</t>
-  </si>
-  <si>
-    <t>03.09.2020</t>
-  </si>
-  <si>
-    <t>9 360,000</t>
-  </si>
-  <si>
-    <t>TBN</t>
-  </si>
-  <si>
-    <t>KZP EXPO</t>
-  </si>
-  <si>
-    <t>PARANA WARRIOR</t>
-  </si>
-  <si>
-    <t>27 125,000</t>
-  </si>
-  <si>
-    <t>TAMARACK</t>
-  </si>
-  <si>
-    <t>02.09.2020</t>
-  </si>
-  <si>
-    <t>DORIC</t>
+    <t>59 570,000</t>
+  </si>
+  <si>
+    <t>KALININGRAD</t>
+  </si>
+  <si>
+    <t>PORT SILO</t>
+  </si>
+  <si>
+    <t>KERLI</t>
+  </si>
+  <si>
+    <t>INFLOTWEST</t>
+  </si>
+  <si>
+    <t>4 000,000</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSTOCK </t>
+  </si>
+  <si>
+    <t>SODRUZHESTVO SOYA</t>
+  </si>
+  <si>
+    <t>SORMOVSKIY 3057</t>
+  </si>
+  <si>
+    <t>TRANS-AGRO MA</t>
+  </si>
+  <si>
+    <t>3 000,000</t>
+  </si>
+  <si>
+    <t>SODRUZHESTVO GROUP</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUGGE (BRUGES) </t>
+  </si>
+  <si>
+    <t>POLA ATLANTIC</t>
+  </si>
+  <si>
+    <t>23 006,000</t>
+  </si>
+  <si>
+    <t>BRAZIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUAPE </t>
+  </si>
+  <si>
+    <t>HILMA BULKER</t>
+  </si>
+  <si>
+    <t>31 550,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATAL </t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,43 +1661,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <v>9434606</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1582,43 +1705,43 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>9434606</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1626,43 +1749,43 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>9522908</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1670,43 +1793,43 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="G5">
         <v>9377688</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" t="s">
+        <v>161</v>
+      </c>
+      <c r="N5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1714,43 +1837,43 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="G6">
         <v>9377688</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" t="s">
+        <v>160</v>
+      </c>
+      <c r="M6" t="s">
+        <v>163</v>
+      </c>
+      <c r="N6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1758,43 +1881,43 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="G7">
         <v>9136785</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1802,43 +1925,43 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="G8">
         <v>8418265</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1846,43 +1969,43 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="G9">
         <v>9442574</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1890,43 +2013,43 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="G10">
         <v>9594614</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1934,43 +2057,43 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="G11">
         <v>9631474</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" t="s">
-        <v>37</v>
-      </c>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1978,43 +2101,43 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="G12">
         <v>9460746</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2022,43 +2145,43 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="G13">
         <v>9077903</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M13" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="N13" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2066,43 +2189,43 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="G14">
         <v>9118252</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="M14" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2110,43 +2233,43 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="G15">
         <v>9699335</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" t="s">
+        <v>194</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" t="s">
+        <v>195</v>
+      </c>
+      <c r="N15" t="s">
         <v>22</v>
       </c>
-      <c r="J15" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" t="s">
-        <v>87</v>
-      </c>
-      <c r="N15" t="s">
-        <v>37</v>
-      </c>
       <c r="O15" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2154,43 +2277,43 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="G16">
         <v>9572082</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" t="s">
+        <v>198</v>
+      </c>
+      <c r="L16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" t="s">
+        <v>161</v>
+      </c>
+      <c r="N16" t="s">
         <v>22</v>
       </c>
-      <c r="J16" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" t="s">
-        <v>37</v>
-      </c>
       <c r="O16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -2198,43 +2321,43 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="G17">
         <v>9755696</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="O17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -2242,43 +2365,43 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="G18">
         <v>9231286</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" t="s">
         <v>97</v>
       </c>
-      <c r="L18" t="s">
-        <v>98</v>
-      </c>
       <c r="M18" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="N18" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="O18" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -2286,43 +2409,43 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="G19">
         <v>9524700</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="O19" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -2330,43 +2453,43 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="G20">
         <v>9139256</v>
       </c>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="M20" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="N20" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>110</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -2374,43 +2497,43 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="G21">
         <v>9460772</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M21" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="N21" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
@@ -2418,43 +2541,43 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="G22">
         <v>9519171</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="M22" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="N22" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -2462,43 +2585,43 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="G23">
         <v>9452622</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M23" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="O23" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -2506,43 +2629,43 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="G24">
         <v>9250177</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="M24" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -2550,43 +2673,43 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E25">
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="G25">
         <v>9542829</v>
       </c>
       <c r="H25" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K25" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" t="s">
+        <v>230</v>
+      </c>
+      <c r="N25" t="s">
         <v>22</v>
       </c>
-      <c r="J25" t="s">
-        <v>132</v>
-      </c>
-      <c r="K25" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" t="s">
-        <v>109</v>
-      </c>
-      <c r="M25" t="s">
-        <v>134</v>
-      </c>
-      <c r="N25" t="s">
-        <v>37</v>
-      </c>
       <c r="O25" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -2594,43 +2717,43 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E26">
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="G26">
         <v>9302803</v>
       </c>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" t="s">
+        <v>233</v>
+      </c>
+      <c r="N26" t="s">
         <v>22</v>
       </c>
-      <c r="J26" t="s">
-        <v>136</v>
-      </c>
-      <c r="K26" t="s">
-        <v>97</v>
-      </c>
-      <c r="L26" t="s">
-        <v>109</v>
-      </c>
-      <c r="M26" t="s">
-        <v>137</v>
-      </c>
-      <c r="N26" t="s">
-        <v>37</v>
-      </c>
       <c r="O26" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
@@ -2638,43 +2761,43 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="G27">
         <v>9423542</v>
       </c>
       <c r="H27" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="L27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M27" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="N27" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="O27" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
@@ -2682,43 +2805,43 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="E28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="G28">
-        <v>9287778</v>
+        <v>9311529</v>
       </c>
       <c r="H28" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="L28" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="M28" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="N28" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="O28" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
@@ -2726,43 +2849,43 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="G29">
-        <v>9339454</v>
+        <v>9287778</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="L29" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="M29" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="N29" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="O29" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -2770,43 +2893,43 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="G30">
-        <v>9692739</v>
+        <v>9339454</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="K30" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L30" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M30" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="N30" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="O30" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
@@ -2814,43 +2937,43 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="G31">
-        <v>9340491</v>
+        <v>9692739</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s">
+        <v>160</v>
+      </c>
+      <c r="M31" t="s">
+        <v>249</v>
+      </c>
+      <c r="N31" t="s">
         <v>22</v>
       </c>
-      <c r="J31" t="s">
-        <v>157</v>
-      </c>
-      <c r="K31" t="s">
-        <v>71</v>
-      </c>
-      <c r="L31" t="s">
-        <v>150</v>
-      </c>
-      <c r="M31" t="s">
-        <v>137</v>
-      </c>
-      <c r="N31" t="s">
-        <v>151</v>
-      </c>
       <c r="O31" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
@@ -2858,43 +2981,43 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>158</v>
+        <v>250</v>
       </c>
       <c r="G32">
-        <v>9077898</v>
+        <v>9340491</v>
       </c>
       <c r="H32" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="M32" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="N32" t="s">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="O32" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -2902,43 +3025,43 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="G33">
-        <v>9582960</v>
+        <v>9077898</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="L33" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="M33" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="N33" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="O33" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -2946,43 +3069,43 @@
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>159</v>
+        <v>251</v>
       </c>
       <c r="G34">
         <v>9582960</v>
       </c>
       <c r="H34" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="J34" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="L34" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M34" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="N34" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="O34" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -2990,43 +3113,43 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="G35">
-        <v>9104421</v>
+        <v>9582960</v>
       </c>
       <c r="H35" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="J35" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="K35" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="L35" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M35" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="N35" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="O35" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
@@ -3034,43 +3157,43 @@
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
+        <v>253</v>
       </c>
       <c r="G36">
         <v>9104421</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" t="s">
+        <v>219</v>
+      </c>
+      <c r="L36" t="s">
+        <v>160</v>
+      </c>
+      <c r="M36" t="s">
+        <v>155</v>
+      </c>
+      <c r="N36" t="s">
         <v>22</v>
       </c>
-      <c r="J36" t="s">
-        <v>163</v>
-      </c>
-      <c r="K36" t="s">
-        <v>121</v>
-      </c>
-      <c r="L36" t="s">
-        <v>150</v>
-      </c>
-      <c r="M36" t="s">
-        <v>35</v>
-      </c>
-      <c r="N36" t="s">
-        <v>37</v>
-      </c>
       <c r="O36" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -3078,43 +3201,43 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="G37">
-        <v>9174634</v>
+        <v>9104421</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>255</v>
+      </c>
+      <c r="K37" t="s">
+        <v>219</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>155</v>
+      </c>
+      <c r="N37" t="s">
         <v>22</v>
       </c>
-      <c r="J37" t="s">
-        <v>165</v>
-      </c>
-      <c r="K37" t="s">
-        <v>127</v>
-      </c>
-      <c r="L37" t="s">
-        <v>109</v>
-      </c>
-      <c r="M37" t="s">
-        <v>128</v>
-      </c>
-      <c r="N37" t="s">
-        <v>129</v>
-      </c>
       <c r="O37" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -3122,43 +3245,43 @@
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G38">
-        <v>9127136</v>
+        <v>9174634</v>
       </c>
       <c r="H38" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="K38" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="L38" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="M38" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="N38" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="O38" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
@@ -3166,43 +3289,43 @@
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>258</v>
       </c>
       <c r="G39">
-        <v>9572082</v>
+        <v>9127136</v>
       </c>
       <c r="H39" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="L39" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M39" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="N39" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="O39" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
@@ -3210,43 +3333,43 @@
         <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E40">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="G40">
-        <v>9452593</v>
+        <v>9572082</v>
       </c>
       <c r="H40" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="K40" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="L40" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="M40" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="N40" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="O40" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
@@ -3254,43 +3377,43 @@
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="G41">
-        <v>9590967</v>
+        <v>9452593</v>
       </c>
       <c r="H41" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="J41" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="K41" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M41" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="N41" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="O41" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -3298,2029 +3421,2529 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>174</v>
+        <v>263</v>
       </c>
       <c r="G42">
-        <v>9748277</v>
+        <v>9590967</v>
       </c>
       <c r="H42" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J42" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="K42" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="L42" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="M42" t="s">
         <v>155</v>
       </c>
       <c r="N42" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="O42" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43">
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="G43">
-        <v>9582518</v>
+        <v>9748277</v>
       </c>
       <c r="H43" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="K43" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="L43" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="M43" t="s">
-        <v>122</v>
+        <v>249</v>
       </c>
       <c r="N43" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="O43" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="G44">
-        <v>9364784</v>
+        <v>9582518</v>
       </c>
       <c r="H44" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="J44" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="K44" t="s">
-        <v>54</v>
+        <v>268</v>
       </c>
       <c r="L44" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="M44" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="N44" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="O44" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="G45">
-        <v>9594705</v>
+        <v>9364784</v>
       </c>
       <c r="H45" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>271</v>
+      </c>
+      <c r="K45" t="s">
+        <v>168</v>
+      </c>
+      <c r="L45" t="s">
+        <v>56</v>
+      </c>
+      <c r="M45" t="s">
+        <v>272</v>
+      </c>
+      <c r="N45" t="s">
         <v>22</v>
       </c>
-      <c r="J45" t="s">
-        <v>186</v>
-      </c>
-      <c r="K45" t="s">
-        <v>54</v>
-      </c>
-      <c r="L45" t="s">
-        <v>180</v>
-      </c>
-      <c r="M45" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" t="s">
-        <v>187</v>
-      </c>
       <c r="O45" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="G46">
-        <v>9729348</v>
+        <v>9594705</v>
       </c>
       <c r="H46" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="K46" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="L46" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="M46" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="N46" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="O46" t="s">
-        <v>37</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="G47">
-        <v>9424613</v>
+        <v>9729348</v>
       </c>
       <c r="H47" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="L47" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="M47" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="N47" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="O47" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="G48">
         <v>9424613</v>
       </c>
       <c r="H48" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J48" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="K48" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="L48" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="M48" t="s">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="N48" t="s">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="O48" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="G49">
-        <v>9324148</v>
+        <v>9424613</v>
       </c>
       <c r="H49" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="K49" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="L49" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="M49" t="s">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="N49" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="O49" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="G50">
-        <v>9326330</v>
+        <v>9324148</v>
       </c>
       <c r="H50" t="s">
-        <v>204</v>
+        <v>286</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c r="K50" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="L50" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="M50" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="N50" t="s">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="O50" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="G51">
-        <v>9324148</v>
+        <v>9326330</v>
       </c>
       <c r="H51" t="s">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="K51" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="L51" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="M51" t="s">
-        <v>67</v>
+        <v>292</v>
       </c>
       <c r="N51" t="s">
-        <v>68</v>
+        <v>293</v>
       </c>
       <c r="O51" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="G52">
         <v>9324148</v>
       </c>
       <c r="H52" t="s">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J52" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="K52" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="L52" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="M52" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="N52" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="O52" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="G53">
-        <v>9801172</v>
+        <v>9324148</v>
       </c>
       <c r="H53" t="s">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J53" t="s">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="K53" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="L53" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="M53" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="N53" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="O53" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="G54">
-        <v>9125229</v>
+        <v>9801172</v>
       </c>
       <c r="H54" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s">
-        <v>214</v>
+        <v>297</v>
       </c>
       <c r="K54" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="L54" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="M54" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="N54" t="s">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="O54" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="G55">
-        <v>9142215</v>
+        <v>9125229</v>
       </c>
       <c r="H55" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J55" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="K55" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="L55" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="M55" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="N55" t="s">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="O55" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="G56">
-        <v>9781085</v>
+        <v>9142215</v>
       </c>
       <c r="H56" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>301</v>
+      </c>
+      <c r="K56" t="s">
+        <v>302</v>
+      </c>
+      <c r="L56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M56" t="s">
+        <v>272</v>
+      </c>
+      <c r="N56" t="s">
         <v>22</v>
       </c>
-      <c r="J56" t="s">
-        <v>219</v>
-      </c>
-      <c r="K56" t="s">
-        <v>217</v>
-      </c>
-      <c r="L56" t="s">
-        <v>180</v>
-      </c>
-      <c r="M56" t="s">
-        <v>72</v>
-      </c>
-      <c r="N56" t="s">
-        <v>220</v>
-      </c>
       <c r="O56" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="G57">
-        <v>9122899</v>
+        <v>9781085</v>
       </c>
       <c r="H57" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J57" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="K57" t="s">
-        <v>71</v>
+        <v>302</v>
       </c>
       <c r="L57" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="M57" t="s">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="N57" t="s">
-        <v>196</v>
+        <v>305</v>
       </c>
       <c r="O57" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F58" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="G58">
-        <v>9446192</v>
+        <v>9122899</v>
       </c>
       <c r="H58" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J58" t="s">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="K58" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="L58" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="M58" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="N58" t="s">
-        <v>37</v>
+        <v>283</v>
       </c>
       <c r="O58" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="G59">
         <v>9446192</v>
       </c>
       <c r="H59" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I59" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J59" t="s">
-        <v>226</v>
+        <v>309</v>
       </c>
       <c r="K59" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="L59" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="M59" t="s">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="N59" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="O59" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s">
-        <v>227</v>
+        <v>308</v>
       </c>
       <c r="G60">
-        <v>9452555</v>
+        <v>9446192</v>
       </c>
       <c r="H60" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I60" t="s">
+        <v>167</v>
+      </c>
+      <c r="J60" t="s">
+        <v>310</v>
+      </c>
+      <c r="K60" t="s">
+        <v>147</v>
+      </c>
+      <c r="L60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M60" t="s">
+        <v>75</v>
+      </c>
+      <c r="N60" t="s">
         <v>22</v>
       </c>
-      <c r="J60" t="s">
-        <v>23</v>
-      </c>
-      <c r="K60" t="s">
-        <v>75</v>
-      </c>
-      <c r="L60" t="s">
-        <v>180</v>
-      </c>
-      <c r="M60" t="s">
-        <v>26</v>
-      </c>
-      <c r="N60" t="s">
-        <v>27</v>
-      </c>
       <c r="O60" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F61" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="G61">
-        <v>9470818</v>
+        <v>9452555</v>
       </c>
       <c r="H61" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J61" t="s">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c r="K61" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="L61" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="M61" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="N61" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="O61" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="G62">
-        <v>9452555</v>
+        <v>9470818</v>
       </c>
       <c r="H62" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J62" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="K62" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="L62" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="M62" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="N62" t="s">
-        <v>27</v>
+        <v>266</v>
       </c>
       <c r="O62" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="G63">
         <v>9452555</v>
       </c>
       <c r="H63" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J63" t="s">
-        <v>23</v>
+        <v>315</v>
       </c>
       <c r="K63" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="L63" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="M63" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="N63" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="O63" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
       <c r="G64">
-        <v>9618616</v>
+        <v>9452555</v>
       </c>
       <c r="H64" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="I64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J64" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="K64" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="L64" t="s">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c r="M64" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="N64" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="O64" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F65" t="s">
-        <v>235</v>
+        <v>316</v>
       </c>
       <c r="G65">
-        <v>9151395</v>
+        <v>9618616</v>
       </c>
       <c r="H65" t="s">
-        <v>204</v>
+        <v>286</v>
       </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J65" t="s">
-        <v>163</v>
+        <v>317</v>
       </c>
       <c r="K65" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="L65" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="M65" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="N65" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="O65" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F66" t="s">
-        <v>237</v>
+        <v>319</v>
       </c>
       <c r="G66">
-        <v>9594717</v>
+        <v>9151395</v>
       </c>
       <c r="H66" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J66" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K66" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="L66" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="M66" t="s">
-        <v>102</v>
+        <v>282</v>
       </c>
       <c r="N66" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="O66" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="G67">
         <v>9594717</v>
       </c>
       <c r="H67" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J67" t="s">
-        <v>239</v>
+        <v>322</v>
       </c>
       <c r="K67" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="L67" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="M67" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="N67" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="O67" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F68" t="s">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c r="G68">
-        <v>9114139</v>
+        <v>9594717</v>
       </c>
       <c r="H68" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J68" t="s">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="K68" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="L68" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M68" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="N68" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="O68" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
         <v>27</v>
       </c>
-      <c r="C69" t="s">
-        <v>176</v>
-      </c>
       <c r="F69" t="s">
-        <v>242</v>
+        <v>324</v>
       </c>
       <c r="G69">
-        <v>9159737</v>
+        <v>9114139</v>
       </c>
       <c r="H69" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J69" t="s">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="K69" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="L69" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="M69" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="N69" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="O69" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F70" t="s">
-        <v>243</v>
+        <v>325</v>
       </c>
       <c r="G70">
-        <v>9749855</v>
+        <v>9159737</v>
       </c>
       <c r="H70" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J70" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="K70" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="L70" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="M70" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="N70" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="O70" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F71" t="s">
-        <v>245</v>
+        <v>326</v>
       </c>
       <c r="G71">
-        <v>9300556</v>
+        <v>9749855</v>
       </c>
       <c r="H71" t="s">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K71" t="s">
+        <v>154</v>
+      </c>
+      <c r="L71" t="s">
+        <v>56</v>
+      </c>
+      <c r="M71" t="s">
+        <v>75</v>
+      </c>
+      <c r="N71" t="s">
         <v>22</v>
       </c>
-      <c r="J71" t="s">
-        <v>246</v>
-      </c>
-      <c r="K71" t="s">
-        <v>127</v>
-      </c>
-      <c r="L71" t="s">
-        <v>76</v>
-      </c>
-      <c r="M71" t="s">
-        <v>137</v>
-      </c>
-      <c r="N71" t="s">
-        <v>151</v>
-      </c>
       <c r="O71" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F72" t="s">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="G72">
-        <v>9739020</v>
+        <v>9300556</v>
       </c>
       <c r="H72" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J72" t="s">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="K72" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="L72" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="M72" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="N72" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="O72" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F73" t="s">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="G73">
-        <v>9235232</v>
+        <v>9739020</v>
       </c>
       <c r="H73" t="s">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J73" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
       <c r="K73" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="L73" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="M73" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="N73" t="s">
-        <v>37</v>
+        <v>283</v>
       </c>
       <c r="O73" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F74" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="G74">
-        <v>9643453</v>
+        <v>9235232</v>
       </c>
       <c r="H74" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J74" t="s">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="K74" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="L74" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="M74" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="N74" t="s">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="O74" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F75" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="G75">
-        <v>9113850</v>
+        <v>9643453</v>
       </c>
       <c r="H75" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
+        <v>334</v>
+      </c>
+      <c r="K75" t="s">
+        <v>330</v>
+      </c>
+      <c r="L75" t="s">
+        <v>56</v>
+      </c>
+      <c r="M75" t="s">
+        <v>201</v>
+      </c>
+      <c r="N75" t="s">
         <v>22</v>
       </c>
-      <c r="J75" t="s">
-        <v>254</v>
-      </c>
-      <c r="K75" t="s">
-        <v>90</v>
-      </c>
-      <c r="L75" t="s">
-        <v>180</v>
-      </c>
-      <c r="M75" t="s">
-        <v>26</v>
-      </c>
-      <c r="N75" t="s">
-        <v>77</v>
-      </c>
       <c r="O75" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F76" t="s">
-        <v>255</v>
+        <v>335</v>
       </c>
       <c r="G76">
-        <v>9610999</v>
+        <v>9113850</v>
       </c>
       <c r="H76" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J76" t="s">
+        <v>336</v>
+      </c>
+      <c r="K76" t="s">
+        <v>198</v>
+      </c>
+      <c r="L76" t="s">
+        <v>56</v>
+      </c>
+      <c r="M76" t="s">
+        <v>94</v>
+      </c>
+      <c r="N76" t="s">
         <v>186</v>
       </c>
-      <c r="K76" t="s">
-        <v>90</v>
-      </c>
-      <c r="L76" t="s">
-        <v>256</v>
-      </c>
-      <c r="M76" t="s">
-        <v>257</v>
-      </c>
-      <c r="N76" t="s">
-        <v>258</v>
-      </c>
       <c r="O76" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="G77">
-        <v>9254575</v>
+        <v>9610999</v>
       </c>
       <c r="H77" t="s">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J77" t="s">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="K77" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="L77" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="M77" t="s">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="N77" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="O77" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F78" t="s">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="G78">
-        <v>9583691</v>
+        <v>9254575</v>
       </c>
       <c r="H78" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="J78" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="K78" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="L78" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="M78" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="N78" t="s">
-        <v>37</v>
+        <v>341</v>
       </c>
       <c r="O78" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F79" t="s">
-        <v>265</v>
+        <v>342</v>
       </c>
       <c r="G79">
-        <v>9084255</v>
+        <v>9583691</v>
       </c>
       <c r="H79" t="s">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="I79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J79" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K79" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="L79" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="M79" t="s">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="N79" t="s">
-        <v>37</v>
+        <v>344</v>
       </c>
       <c r="O79" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F80" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="G80">
-        <v>9114543</v>
+        <v>9084255</v>
       </c>
       <c r="H80" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="I80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J80" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="K80" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="L80" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="M80" t="s">
-        <v>268</v>
+        <v>346</v>
       </c>
       <c r="N80" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
       <c r="O80" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F81" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="G81">
-        <v>9543768</v>
+        <v>9114543</v>
       </c>
       <c r="H81" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J81" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="K81" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="L81" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="M81" t="s">
-        <v>67</v>
+        <v>349</v>
       </c>
       <c r="N81" t="s">
-        <v>68</v>
+        <v>350</v>
       </c>
       <c r="O81" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F82" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="G82">
-        <v>9712943</v>
+        <v>9543768</v>
       </c>
       <c r="H82" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="I82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J82" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="K82" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="L82" t="s">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c r="M82" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="N82" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="O82" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F83" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="G83">
-        <v>9279836</v>
+        <v>9584205</v>
       </c>
       <c r="H83" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="I83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J83" t="s">
-        <v>273</v>
+        <v>126</v>
       </c>
       <c r="K83" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="L83" t="s">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="M83" t="s">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="N83" t="s">
-        <v>175</v>
+        <v>354</v>
       </c>
       <c r="O83" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
-        <v>275</v>
-      </c>
-      <c r="D84" t="s">
-        <v>276</v>
-      </c>
-      <c r="E84">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F84" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="G84">
-        <v>9448229</v>
+        <v>9712943</v>
+      </c>
+      <c r="H84" t="s">
+        <v>286</v>
       </c>
       <c r="I84" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s">
+        <v>69</v>
+      </c>
+      <c r="K84" t="s">
+        <v>64</v>
+      </c>
+      <c r="L84" t="s">
+        <v>141</v>
+      </c>
+      <c r="M84" t="s">
+        <v>233</v>
+      </c>
+      <c r="N84" t="s">
         <v>22</v>
       </c>
-      <c r="J84" t="s">
-        <v>278</v>
-      </c>
-      <c r="K84" t="s">
-        <v>145</v>
-      </c>
-      <c r="L84" t="s">
-        <v>201</v>
-      </c>
-      <c r="M84" t="s">
-        <v>72</v>
-      </c>
-      <c r="N84" t="s">
-        <v>220</v>
-      </c>
       <c r="O84" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>275</v>
-      </c>
-      <c r="D85" t="s">
-        <v>276</v>
-      </c>
-      <c r="E85">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F85" t="s">
-        <v>279</v>
+        <v>356</v>
       </c>
       <c r="G85">
-        <v>9638147</v>
+        <v>9279836</v>
       </c>
       <c r="H85" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J85" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="K85" t="s">
-        <v>280</v>
+        <v>64</v>
       </c>
       <c r="L85" t="s">
-        <v>201</v>
+        <v>357</v>
       </c>
       <c r="M85" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="N85" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="O85" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C86" t="s">
-        <v>275</v>
-      </c>
-      <c r="D86" t="s">
-        <v>276</v>
-      </c>
-      <c r="E86">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F86" t="s">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="G86">
-        <v>9727467</v>
+        <v>9591753</v>
       </c>
       <c r="H86" t="s">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c r="I86" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J86" t="s">
-        <v>285</v>
+        <v>55</v>
       </c>
       <c r="K86" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L86" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="M86" t="s">
-        <v>122</v>
+        <v>359</v>
       </c>
       <c r="N86" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="O86" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
-        <v>275</v>
-      </c>
-      <c r="D87" t="s">
-        <v>276</v>
-      </c>
-      <c r="E87">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F87" t="s">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="G87">
-        <v>9647277</v>
+        <v>9123960</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
       </c>
       <c r="I87" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J87" t="s">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="K87" t="s">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="L87" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="M87" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="N87" t="s">
-        <v>288</v>
+        <v>186</v>
       </c>
       <c r="O87" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C88" t="s">
-        <v>275</v>
-      </c>
-      <c r="D88" t="s">
-        <v>276</v>
-      </c>
-      <c r="E88">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F88" t="s">
-        <v>289</v>
+        <v>361</v>
       </c>
       <c r="G88">
-        <v>9254989</v>
+        <v>9511820</v>
       </c>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="I88" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s">
+        <v>146</v>
+      </c>
+      <c r="K88" t="s">
+        <v>73</v>
+      </c>
+      <c r="L88" t="s">
+        <v>56</v>
+      </c>
+      <c r="M88" t="s">
+        <v>233</v>
+      </c>
+      <c r="N88" t="s">
         <v>22</v>
       </c>
-      <c r="J88" t="s">
-        <v>290</v>
-      </c>
-      <c r="K88" t="s">
-        <v>173</v>
-      </c>
-      <c r="L88" t="s">
-        <v>34</v>
-      </c>
-      <c r="M88" t="s">
-        <v>67</v>
-      </c>
-      <c r="N88" t="s">
-        <v>68</v>
-      </c>
       <c r="O88" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
-      </c>
-      <c r="D89" t="s">
-        <v>276</v>
-      </c>
-      <c r="E89">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F89" t="s">
-        <v>277</v>
+        <v>362</v>
       </c>
       <c r="G89">
-        <v>9448229</v>
+        <v>9666429</v>
+      </c>
+      <c r="H89" t="s">
+        <v>290</v>
       </c>
       <c r="I89" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+      <c r="K89" t="s">
+        <v>77</v>
+      </c>
+      <c r="L89" t="s">
+        <v>160</v>
+      </c>
+      <c r="M89" t="s">
+        <v>215</v>
+      </c>
+      <c r="N89" t="s">
         <v>22</v>
       </c>
-      <c r="J89" t="s">
-        <v>278</v>
-      </c>
-      <c r="K89" t="s">
-        <v>145</v>
-      </c>
-      <c r="L89" t="s">
-        <v>201</v>
-      </c>
-      <c r="M89" t="s">
-        <v>72</v>
-      </c>
-      <c r="N89" t="s">
-        <v>220</v>
-      </c>
       <c r="O89" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C90" t="s">
-        <v>275</v>
-      </c>
-      <c r="D90" t="s">
-        <v>276</v>
-      </c>
-      <c r="E90">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F90" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="G90">
-        <v>9638147</v>
+        <v>9214331</v>
       </c>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="I90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J90" t="s">
-        <v>263</v>
+        <v>364</v>
       </c>
       <c r="K90" t="s">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="L90" t="s">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c r="M90" t="s">
-        <v>281</v>
+        <v>94</v>
       </c>
       <c r="N90" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="O90" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>275</v>
-      </c>
-      <c r="D91" t="s">
-        <v>276</v>
-      </c>
-      <c r="E91">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F91" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="G91">
-        <v>9727467</v>
+        <v>9644548</v>
       </c>
       <c r="H91" t="s">
-        <v>284</v>
+        <v>54</v>
       </c>
       <c r="I91" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="J91" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="K91" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L91" t="s">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c r="M91" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="N91" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="O91" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C92" t="s">
-        <v>275</v>
-      </c>
-      <c r="D92" t="s">
-        <v>276</v>
-      </c>
-      <c r="E92">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F92" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="G92">
-        <v>9647277</v>
+        <v>8400218</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
       </c>
       <c r="I92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J92" t="s">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="K92" t="s">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="L92" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="M92" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="N92" t="s">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="O92" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93">
+        <v>50</v>
+      </c>
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93" t="s">
+        <v>367</v>
+      </c>
+      <c r="G93">
+        <v>9700196</v>
+      </c>
+      <c r="H93" t="s">
+        <v>54</v>
+      </c>
+      <c r="I93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s">
+        <v>63</v>
+      </c>
+      <c r="K93" t="s">
+        <v>41</v>
+      </c>
+      <c r="L93" t="s">
+        <v>56</v>
+      </c>
+      <c r="M93" t="s">
+        <v>233</v>
+      </c>
+      <c r="N93" t="s">
+        <v>245</v>
+      </c>
+      <c r="O93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>51</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" t="s">
+        <v>368</v>
+      </c>
+      <c r="G94">
+        <v>9133771</v>
+      </c>
+      <c r="H94" t="s">
+        <v>54</v>
+      </c>
+      <c r="I94" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" t="s">
+        <v>30</v>
+      </c>
+      <c r="K94" t="s">
+        <v>41</v>
+      </c>
+      <c r="L94" t="s">
+        <v>56</v>
+      </c>
+      <c r="M94" t="s">
+        <v>207</v>
+      </c>
+      <c r="N94" t="s">
+        <v>208</v>
+      </c>
+      <c r="O94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>52</v>
+      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" t="s">
+        <v>369</v>
+      </c>
+      <c r="G95">
+        <v>9364825</v>
+      </c>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" t="s">
+        <v>58</v>
+      </c>
+      <c r="K95" t="s">
+        <v>41</v>
+      </c>
+      <c r="L95" t="s">
+        <v>29</v>
+      </c>
+      <c r="M95" t="s">
+        <v>233</v>
+      </c>
+      <c r="N95" t="s">
+        <v>22</v>
+      </c>
+      <c r="O95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>53</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" t="s">
+        <v>370</v>
+      </c>
+      <c r="G96">
+        <v>9425679</v>
+      </c>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s">
+        <v>72</v>
+      </c>
+      <c r="K96" t="s">
+        <v>41</v>
+      </c>
+      <c r="L96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M96" t="s">
+        <v>75</v>
+      </c>
+      <c r="N96" t="s">
+        <v>22</v>
+      </c>
+      <c r="O96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>371</v>
+      </c>
+      <c r="G97">
+        <v>9448229</v>
+      </c>
+      <c r="I97" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" t="s">
+        <v>372</v>
+      </c>
+      <c r="K97" t="s">
+        <v>240</v>
+      </c>
+      <c r="L97" t="s">
+        <v>141</v>
+      </c>
+      <c r="M97" t="s">
+        <v>70</v>
+      </c>
+      <c r="N97" t="s">
+        <v>305</v>
+      </c>
+      <c r="O97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>373</v>
+      </c>
+      <c r="G98">
+        <v>9638147</v>
+      </c>
+      <c r="H98" t="s">
+        <v>50</v>
+      </c>
+      <c r="I98" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" t="s">
+        <v>89</v>
+      </c>
+      <c r="K98" t="s">
+        <v>374</v>
+      </c>
+      <c r="L98" t="s">
+        <v>141</v>
+      </c>
+      <c r="M98" t="s">
+        <v>375</v>
+      </c>
+      <c r="N98" t="s">
+        <v>376</v>
+      </c>
+      <c r="O98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>139</v>
+      </c>
+      <c r="G99">
+        <v>9727467</v>
+      </c>
+      <c r="H99" t="s">
+        <v>377</v>
+      </c>
+      <c r="I99" t="s">
+        <v>167</v>
+      </c>
+      <c r="J99" t="s">
+        <v>378</v>
+      </c>
+      <c r="K99" t="s">
+        <v>182</v>
+      </c>
+      <c r="L99" t="s">
+        <v>141</v>
+      </c>
+      <c r="M99" t="s">
+        <v>220</v>
+      </c>
+      <c r="N99" t="s">
+        <v>221</v>
+      </c>
+      <c r="O99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>379</v>
+      </c>
+      <c r="G100">
+        <v>9647277</v>
+      </c>
+      <c r="I100" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" t="s">
+        <v>380</v>
+      </c>
+      <c r="K100" t="s">
+        <v>318</v>
+      </c>
+      <c r="L100" t="s">
+        <v>141</v>
+      </c>
+      <c r="M100" t="s">
+        <v>163</v>
+      </c>
+      <c r="N100" t="s">
+        <v>381</v>
+      </c>
+      <c r="O100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101">
         <v>5</v>
       </c>
-      <c r="C93" t="s">
-        <v>275</v>
-      </c>
-      <c r="D93" t="s">
-        <v>276</v>
-      </c>
-      <c r="E93">
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101">
         <v>4</v>
       </c>
-      <c r="F93" t="s">
-        <v>289</v>
-      </c>
-      <c r="G93">
+      <c r="F101" t="s">
+        <v>382</v>
+      </c>
+      <c r="G101">
         <v>9254989</v>
       </c>
-      <c r="H93" t="s">
-        <v>115</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="H101" t="s">
+        <v>50</v>
+      </c>
+      <c r="I101" t="s">
+        <v>20</v>
+      </c>
+      <c r="J101" t="s">
+        <v>383</v>
+      </c>
+      <c r="K101" t="s">
+        <v>73</v>
+      </c>
+      <c r="L101" t="s">
+        <v>103</v>
+      </c>
+      <c r="M101" t="s">
+        <v>104</v>
+      </c>
+      <c r="N101" t="s">
+        <v>179</v>
+      </c>
+      <c r="O101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>384</v>
+      </c>
+      <c r="G102">
+        <v>9221592</v>
+      </c>
+      <c r="I102" t="s">
+        <v>167</v>
+      </c>
+      <c r="J102" t="s">
+        <v>385</v>
+      </c>
+      <c r="K102" t="s">
+        <v>79</v>
+      </c>
+      <c r="L102" t="s">
+        <v>141</v>
+      </c>
+      <c r="M102" t="s">
+        <v>220</v>
+      </c>
+      <c r="N102" t="s">
         <v>22</v>
       </c>
-      <c r="J93" t="s">
-        <v>290</v>
-      </c>
-      <c r="K93" t="s">
-        <v>173</v>
-      </c>
-      <c r="L93" t="s">
-        <v>34</v>
-      </c>
-      <c r="M93" t="s">
-        <v>67</v>
-      </c>
-      <c r="N93" t="s">
-        <v>68</v>
-      </c>
-      <c r="O93" t="s">
-        <v>37</v>
+      <c r="O102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>386</v>
+      </c>
+      <c r="D103" t="s">
+        <v>387</v>
+      </c>
+      <c r="E103">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>388</v>
+      </c>
+      <c r="G103">
+        <v>9125695</v>
+      </c>
+      <c r="H103" t="s">
+        <v>389</v>
+      </c>
+      <c r="I103" t="s">
+        <v>20</v>
+      </c>
+      <c r="J103" t="s">
+        <v>390</v>
+      </c>
+      <c r="K103" t="s">
+        <v>159</v>
+      </c>
+      <c r="L103" t="s">
+        <v>23</v>
+      </c>
+      <c r="M103" t="s">
+        <v>391</v>
+      </c>
+      <c r="N103" t="s">
+        <v>392</v>
+      </c>
+      <c r="O103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>386</v>
+      </c>
+      <c r="D104" t="s">
+        <v>393</v>
+      </c>
+      <c r="E104">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>394</v>
+      </c>
+      <c r="G104">
+        <v>8419635</v>
+      </c>
+      <c r="H104" t="s">
+        <v>395</v>
+      </c>
+      <c r="J104" t="s">
+        <v>396</v>
+      </c>
+      <c r="K104" t="s">
+        <v>268</v>
+      </c>
+      <c r="L104" t="s">
+        <v>397</v>
+      </c>
+      <c r="M104" t="s">
+        <v>398</v>
+      </c>
+      <c r="N104" t="s">
+        <v>399</v>
+      </c>
+      <c r="O104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>386</v>
+      </c>
+      <c r="D105" t="s">
+        <v>393</v>
+      </c>
+      <c r="E105">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>400</v>
+      </c>
+      <c r="G105">
+        <v>9489417</v>
+      </c>
+      <c r="H105" t="s">
+        <v>395</v>
+      </c>
+      <c r="I105" t="s">
+        <v>20</v>
+      </c>
+      <c r="J105" t="s">
+        <v>401</v>
+      </c>
+      <c r="K105" t="s">
+        <v>178</v>
+      </c>
+      <c r="L105" t="s">
+        <v>397</v>
+      </c>
+      <c r="M105" t="s">
+        <v>402</v>
+      </c>
+      <c r="N105" t="s">
+        <v>403</v>
+      </c>
+      <c r="O105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>386</v>
+      </c>
+      <c r="D106" t="s">
+        <v>393</v>
+      </c>
+      <c r="E106">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>404</v>
+      </c>
+      <c r="G106">
+        <v>9747041</v>
+      </c>
+      <c r="H106" t="s">
+        <v>395</v>
+      </c>
+      <c r="I106" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" t="s">
+        <v>405</v>
+      </c>
+      <c r="K106" t="s">
+        <v>259</v>
+      </c>
+      <c r="L106" t="s">
+        <v>397</v>
+      </c>
+      <c r="M106" t="s">
+        <v>402</v>
+      </c>
+      <c r="N106" t="s">
+        <v>406</v>
+      </c>
+      <c r="O106" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5330,10 +5953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5400,40 +6023,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="G2">
-        <v>9311529</v>
+        <v>9711298</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -5441,34 +6064,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="G3">
-        <v>9218387</v>
+        <v>9295567</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>295</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5476,34 +6105,40 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>9644548</v>
+        <v>9597111</v>
       </c>
       <c r="H4" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -5511,667 +6146,425 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>297</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>9666429</v>
+        <v>9412945</v>
       </c>
       <c r="H5" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
         <v>33</v>
       </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
       <c r="N5" t="s">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>299</v>
+        <v>53</v>
       </c>
       <c r="G6">
-        <v>9584205</v>
+        <v>9740081</v>
       </c>
       <c r="H6" t="s">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>301</v>
+        <v>57</v>
       </c>
       <c r="G7">
-        <v>9700196</v>
+        <v>9316816</v>
       </c>
       <c r="H7" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="N7" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
+        <v>59</v>
       </c>
       <c r="G8">
-        <v>9591753</v>
+        <v>9746102</v>
       </c>
       <c r="H8" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>303</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>304</v>
+        <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>305</v>
+        <v>60</v>
       </c>
       <c r="G9">
-        <v>9133771</v>
+        <v>9316907</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>306</v>
+        <v>62</v>
       </c>
       <c r="G10">
-        <v>9511820</v>
+        <v>9757929</v>
       </c>
       <c r="H10" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="M10" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="N10" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>307</v>
+        <v>66</v>
       </c>
       <c r="G11">
-        <v>8400218</v>
+        <v>9866706</v>
       </c>
       <c r="H11" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="G12">
-        <v>9214331</v>
+        <v>9492397</v>
       </c>
       <c r="H12" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="M12" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>309</v>
+        <v>71</v>
       </c>
       <c r="G13">
-        <v>9123960</v>
+        <v>9620621</v>
       </c>
       <c r="H13" t="s">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="N13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>310</v>
+        <v>74</v>
       </c>
       <c r="G14">
-        <v>9757929</v>
+        <v>9311153</v>
       </c>
       <c r="H14" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="M14" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="N14" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="G15">
-        <v>9364825</v>
+        <v>9389239</v>
       </c>
       <c r="H15" t="s">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>186</v>
+        <v>61</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="G16">
-        <v>9425679</v>
+        <v>9489211</v>
       </c>
       <c r="H16" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>246</v>
+        <v>63</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="N16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>176</v>
-      </c>
-      <c r="F17" t="s">
-        <v>313</v>
-      </c>
-      <c r="G17">
-        <v>9866706</v>
-      </c>
-      <c r="H17" t="s">
-        <v>211</v>
-      </c>
-      <c r="I17" t="s">
-        <v>292</v>
-      </c>
-      <c r="J17" t="s">
-        <v>303</v>
-      </c>
-      <c r="K17" t="s">
-        <v>97</v>
-      </c>
-      <c r="M17" t="s">
-        <v>76</v>
-      </c>
-      <c r="N17" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>176</v>
-      </c>
-      <c r="F18" t="s">
-        <v>314</v>
-      </c>
-      <c r="G18">
-        <v>9492397</v>
-      </c>
-      <c r="H18" t="s">
-        <v>178</v>
-      </c>
-      <c r="I18" t="s">
-        <v>292</v>
-      </c>
-      <c r="J18" t="s">
-        <v>157</v>
-      </c>
-      <c r="K18" t="s">
-        <v>97</v>
-      </c>
-      <c r="M18" t="s">
-        <v>180</v>
-      </c>
-      <c r="N18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19">
-        <v>9620621</v>
-      </c>
-      <c r="H19" t="s">
-        <v>178</v>
-      </c>
-      <c r="I19" t="s">
-        <v>292</v>
-      </c>
-      <c r="J19" t="s">
-        <v>246</v>
-      </c>
-      <c r="K19" t="s">
-        <v>173</v>
-      </c>
-      <c r="M19" t="s">
-        <v>180</v>
-      </c>
-      <c r="N19" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F20" t="s">
-        <v>316</v>
-      </c>
-      <c r="G20">
-        <v>9311153</v>
-      </c>
-      <c r="H20" t="s">
-        <v>211</v>
-      </c>
-      <c r="I20" t="s">
-        <v>292</v>
-      </c>
-      <c r="J20" t="s">
-        <v>246</v>
-      </c>
-      <c r="K20" t="s">
-        <v>173</v>
-      </c>
-      <c r="M20" t="s">
-        <v>76</v>
-      </c>
-      <c r="N20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>176</v>
-      </c>
-      <c r="F21" t="s">
-        <v>317</v>
-      </c>
-      <c r="G21">
-        <v>9125566</v>
-      </c>
-      <c r="H21" t="s">
-        <v>211</v>
-      </c>
-      <c r="I21" t="s">
-        <v>292</v>
-      </c>
-      <c r="J21" t="s">
-        <v>241</v>
-      </c>
-      <c r="K21" t="s">
-        <v>173</v>
-      </c>
-      <c r="M21" t="s">
-        <v>76</v>
-      </c>
-      <c r="N21" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" t="s">
-        <v>318</v>
-      </c>
-      <c r="G22">
-        <v>9389239</v>
-      </c>
-      <c r="H22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I22" t="s">
-        <v>292</v>
-      </c>
-      <c r="J22" t="s">
-        <v>244</v>
-      </c>
-      <c r="K22" t="s">
-        <v>140</v>
-      </c>
-      <c r="M22" t="s">
-        <v>180</v>
-      </c>
-      <c r="N22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" t="s">
-        <v>276</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>319</v>
-      </c>
-      <c r="G23">
-        <v>9221592</v>
-      </c>
-      <c r="I23" t="s">
-        <v>320</v>
-      </c>
-      <c r="J23" t="s">
-        <v>303</v>
-      </c>
-      <c r="K23" t="s">
-        <v>173</v>
-      </c>
-      <c r="M23" t="s">
-        <v>201</v>
-      </c>
-      <c r="N23" t="s">
-        <v>122</v>
-      </c>
-      <c r="O23" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6181,10 +6574,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6242,40 +6635,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <v>9592094</v>
+        <v>9218399</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -6283,40 +6676,321 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3">
+        <v>9150743</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3">
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4">
+        <v>9460772</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5">
+        <v>9698941</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6">
+        <v>9460760</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7">
+        <v>9592094</v>
+      </c>
+      <c r="H7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G3">
-        <v>9446726</v>
-      </c>
-      <c r="H3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J3" t="s">
-        <v>323</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8">
+        <v>9698941</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9">
+        <v>9496276</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
         <v>101</v>
       </c>
-      <c r="M3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
+      <c r="G10">
+        <v>9261970</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6326,10 +7000,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6395,40 +7069,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G2">
-        <v>9460772</v>
+        <v>9087233</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>324</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -6436,40 +7110,40 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>325</v>
+        <v>106</v>
       </c>
       <c r="G3">
-        <v>9400150</v>
+        <v>9374349</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>326</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>327</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
-        <v>328</v>
+        <v>108</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -6477,40 +7151,40 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>109</v>
       </c>
       <c r="G4">
-        <v>9374349</v>
+        <v>9400150</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" t="s">
         <v>112</v>
       </c>
-      <c r="K4" t="s">
-        <v>330</v>
-      </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -6518,40 +7192,40 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>331</v>
+        <v>113</v>
       </c>
       <c r="G5">
         <v>9008079</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>332</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s">
-        <v>333</v>
+        <v>114</v>
       </c>
       <c r="K5" t="s">
-        <v>334</v>
+        <v>112</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -6559,40 +7233,40 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>335</v>
+        <v>116</v>
       </c>
       <c r="G6">
         <v>9151400</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>336</v>
+        <v>117</v>
       </c>
       <c r="K6" t="s">
-        <v>337</v>
+        <v>118</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -6600,40 +7274,40 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>338</v>
+        <v>119</v>
       </c>
       <c r="G7">
-        <v>9597111</v>
+        <v>9552367</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6641,40 +7315,40 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>339</v>
+        <v>120</v>
       </c>
       <c r="G8">
-        <v>9295567</v>
+        <v>7915307</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>292</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>340</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -6682,40 +7356,40 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>341</v>
+        <v>123</v>
       </c>
       <c r="G9">
-        <v>9218399</v>
+        <v>9077903</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>320</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>342</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -6723,40 +7397,40 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>343</v>
+        <v>125</v>
       </c>
       <c r="G10">
-        <v>9104158</v>
+        <v>9267170</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>344</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -6764,40 +7438,40 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>345</v>
+        <v>128</v>
       </c>
       <c r="G11">
-        <v>9087233</v>
+        <v>9768928</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>346</v>
+        <v>130</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -6805,40 +7479,40 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>347</v>
+        <v>131</v>
       </c>
       <c r="G12">
-        <v>9150743</v>
+        <v>9304215</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>332</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>348</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>346</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -6846,40 +7520,40 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>349</v>
+        <v>131</v>
       </c>
       <c r="G13">
-        <v>9107681</v>
+        <v>9304215</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -6887,40 +7561,40 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>351</v>
+        <v>134</v>
       </c>
       <c r="G14">
-        <v>9460760</v>
+        <v>9077898</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="I14" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s">
-        <v>256</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -6928,350 +7602,142 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>352</v>
+        <v>136</v>
       </c>
       <c r="G15">
-        <v>9768928</v>
+        <v>9399557</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>353</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>337</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>338</v>
+        <v>138</v>
       </c>
       <c r="G16">
-        <v>9597111</v>
+        <v>9738923</v>
       </c>
       <c r="H16" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="M16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17">
+        <v>9727467</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17" t="s">
         <v>141</v>
       </c>
-      <c r="E17">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>354</v>
-      </c>
-      <c r="G17">
-        <v>9698941</v>
-      </c>
-      <c r="H17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" t="s">
-        <v>292</v>
-      </c>
-      <c r="J17" t="s">
-        <v>303</v>
-      </c>
-      <c r="K17" t="s">
-        <v>350</v>
-      </c>
-      <c r="M17" t="s">
-        <v>37</v>
-      </c>
       <c r="N17" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="O17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18">
+        <v>9866627</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" t="s">
         <v>141</v>
       </c>
-      <c r="E18">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>355</v>
-      </c>
-      <c r="G18">
-        <v>9304215</v>
-      </c>
-      <c r="H18" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" t="s">
-        <v>292</v>
-      </c>
-      <c r="J18" t="s">
-        <v>356</v>
-      </c>
-      <c r="K18" t="s">
-        <v>357</v>
-      </c>
-      <c r="M18" t="s">
-        <v>34</v>
-      </c>
       <c r="N18" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="O18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>355</v>
-      </c>
-      <c r="G19">
-        <v>9304215</v>
-      </c>
-      <c r="H19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I19" t="s">
-        <v>320</v>
-      </c>
-      <c r="J19" t="s">
-        <v>358</v>
-      </c>
-      <c r="K19" t="s">
-        <v>357</v>
-      </c>
-      <c r="M19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>359</v>
-      </c>
-      <c r="H20" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" t="s">
-        <v>292</v>
-      </c>
-      <c r="J20" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" t="s">
-        <v>101</v>
-      </c>
-      <c r="M20" t="s">
-        <v>360</v>
-      </c>
-      <c r="N20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>361</v>
-      </c>
-      <c r="G21">
-        <v>9412945</v>
-      </c>
-      <c r="H21" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" t="s">
-        <v>292</v>
-      </c>
-      <c r="J21" t="s">
-        <v>362</v>
-      </c>
-      <c r="K21" t="s">
-        <v>101</v>
-      </c>
-      <c r="M21" t="s">
-        <v>109</v>
-      </c>
-      <c r="N21" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>275</v>
-      </c>
-      <c r="D22" t="s">
-        <v>276</v>
-      </c>
-      <c r="F22" t="s">
-        <v>363</v>
-      </c>
-      <c r="G22">
-        <v>9261970</v>
-      </c>
-      <c r="I22" t="s">
-        <v>292</v>
-      </c>
-      <c r="J22" t="s">
-        <v>273</v>
-      </c>
-      <c r="K22" t="s">
-        <v>364</v>
-      </c>
-      <c r="M22" t="s">
-        <v>34</v>
-      </c>
-      <c r="N22" t="s">
-        <v>67</v>
-      </c>
-      <c r="O22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" t="s">
-        <v>276</v>
-      </c>
-      <c r="F23" t="s">
-        <v>365</v>
-      </c>
-      <c r="G23">
-        <v>9541837</v>
-      </c>
-      <c r="I23" t="s">
-        <v>292</v>
-      </c>
-      <c r="J23" t="s">
-        <v>186</v>
-      </c>
-      <c r="K23" t="s">
-        <v>346</v>
-      </c>
-      <c r="M23" t="s">
-        <v>109</v>
-      </c>
-      <c r="N23" t="s">
-        <v>137</v>
-      </c>
-      <c r="O23" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Logistic OS/TempDocs/Test.xlsx
+++ b/Logistic OS/TempDocs/Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="214">
   <si>
     <t>№</t>
   </si>
@@ -73,6 +73,597 @@
   </si>
   <si>
     <t>Port of Discharge</t>
+  </si>
+  <si>
+    <t>03.09.2020</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NOVOROSSIYSK</t>
+  </si>
+  <si>
+    <t>KSK</t>
+  </si>
+  <si>
+    <t>SC DELO</t>
+  </si>
+  <si>
+    <t>01.09.2020</t>
+  </si>
+  <si>
+    <t>02.09.2020</t>
+  </si>
+  <si>
+    <t>SUDAN</t>
+  </si>
+  <si>
+    <t>EMMAKRIS I</t>
+  </si>
+  <si>
+    <t>04.09.2020</t>
+  </si>
+  <si>
+    <t>RIF TD</t>
+  </si>
+  <si>
+    <t>JORDAN</t>
+  </si>
+  <si>
+    <t>NGT</t>
+  </si>
+  <si>
+    <t>TRANSAGENT</t>
+  </si>
+  <si>
+    <t>ARTIS-AGRO EXPORT</t>
+  </si>
+  <si>
+    <t>NKHP</t>
+  </si>
+  <si>
+    <t>UNITED GRAIN COMPANY</t>
+  </si>
+  <si>
+    <t>BANGLADESH</t>
+  </si>
+  <si>
+    <t>SKAT-UNIVERSAL</t>
+  </si>
+  <si>
+    <t>MIROGROUP RESOURCES</t>
+  </si>
+  <si>
+    <t>EGYPT</t>
+  </si>
+  <si>
+    <t>KAVKAZ ROADS</t>
+  </si>
+  <si>
+    <t>LINTER</t>
+  </si>
+  <si>
+    <t>KAVKAZ LOGISTIC AGENCY</t>
+  </si>
+  <si>
+    <t>55 000,000</t>
+  </si>
+  <si>
+    <t>05.09.2020</t>
+  </si>
+  <si>
+    <t>ASTON</t>
+  </si>
+  <si>
+    <t>TAMAN</t>
+  </si>
+  <si>
+    <t>ZTKT</t>
+  </si>
+  <si>
+    <t>DORIC</t>
+  </si>
+  <si>
+    <t>WADI ALYARMOUK</t>
+  </si>
+  <si>
+    <t>N/A GR WHEAT</t>
+  </si>
+  <si>
+    <t>57 750,000</t>
+  </si>
+  <si>
+    <t>07.09.2020</t>
+  </si>
+  <si>
+    <t>WADI ALKARM</t>
+  </si>
+  <si>
+    <t>63 000,000</t>
+  </si>
+  <si>
+    <t>ZERNO-TRADE</t>
+  </si>
+  <si>
+    <t>SEABEE / MT</t>
+  </si>
+  <si>
+    <t>GLOBAL OCEAN SERVICE</t>
+  </si>
+  <si>
+    <t>60 000,000</t>
+  </si>
+  <si>
+    <t>KAPETAN SIDERIS</t>
+  </si>
+  <si>
+    <t>50 000,000</t>
+  </si>
+  <si>
+    <t>NIGERIA</t>
+  </si>
+  <si>
+    <t>DRAFTDODGER</t>
+  </si>
+  <si>
+    <t>BOYANG GARNET</t>
+  </si>
+  <si>
+    <t>70 000,000</t>
+  </si>
+  <si>
+    <t>11 000,000</t>
+  </si>
+  <si>
+    <t>VISHVA UDAY</t>
+  </si>
+  <si>
+    <t>LEO OCEAN</t>
+  </si>
+  <si>
+    <t>LIVITA</t>
+  </si>
+  <si>
+    <t>BARLEY</t>
+  </si>
+  <si>
+    <t>23 000,000</t>
+  </si>
+  <si>
+    <t>QI XIAN LING</t>
+  </si>
+  <si>
+    <t>30 000,000</t>
+  </si>
+  <si>
+    <t>PLATON / MH</t>
+  </si>
+  <si>
+    <t>NORDIC SEOUL</t>
+  </si>
+  <si>
+    <t>33 000,000</t>
+  </si>
+  <si>
+    <t>LOUIS DREYFUS VOSTOK</t>
+  </si>
+  <si>
+    <t>CORAL AMETHYST</t>
+  </si>
+  <si>
+    <t>65 000,000</t>
+  </si>
+  <si>
+    <t>27.08.2020</t>
+  </si>
+  <si>
+    <t>YM EFFORT</t>
+  </si>
+  <si>
+    <t>28.08.2020</t>
+  </si>
+  <si>
+    <t>PRINCESS LAYLA</t>
+  </si>
+  <si>
+    <t>UNIVERSAL MARINE COMPANY / KAVKAZ</t>
+  </si>
+  <si>
+    <t>27 000,000</t>
+  </si>
+  <si>
+    <t>KESTREL S</t>
+  </si>
+  <si>
+    <t>30.08.2020</t>
+  </si>
+  <si>
+    <t>LIBYA</t>
+  </si>
+  <si>
+    <t>TAMARACK</t>
+  </si>
+  <si>
+    <t>MTK-TAMAN</t>
+  </si>
+  <si>
+    <t>46 200,000</t>
+  </si>
+  <si>
+    <t>GEMCORP COMMODITIES TRADING RUS</t>
+  </si>
+  <si>
+    <t>ANIMA</t>
+  </si>
+  <si>
+    <t>40 800,000</t>
+  </si>
+  <si>
+    <t>GLENCORE AGRICULTURE IGC</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>KALININGRAD</t>
+  </si>
+  <si>
+    <t>SODRUZHESTVO SOYA</t>
+  </si>
+  <si>
+    <t>NORDRUBICON</t>
+  </si>
+  <si>
+    <t>TRANS-AGRO MA</t>
+  </si>
+  <si>
+    <t>35 000,000</t>
+  </si>
+  <si>
+    <t>SODRUZHESTVO GROUP</t>
+  </si>
+  <si>
+    <t>AMINEH M</t>
+  </si>
+  <si>
+    <t>CORN</t>
+  </si>
+  <si>
+    <t>16 500,000</t>
+  </si>
+  <si>
+    <t>HTK DISCOVERY</t>
+  </si>
+  <si>
+    <t>31 500,000</t>
+  </si>
+  <si>
+    <t>M IZMIR</t>
+  </si>
+  <si>
+    <t>6 000,000</t>
+  </si>
+  <si>
+    <t>FAIT KUBAN</t>
+  </si>
+  <si>
+    <t>NEW SIHAM</t>
+  </si>
+  <si>
+    <t>25 000,000</t>
+  </si>
+  <si>
+    <t>CONCERN POKROVSKIY TD</t>
+  </si>
+  <si>
+    <t>WADI SUDR</t>
+  </si>
+  <si>
+    <t>06.09.2020</t>
+  </si>
+  <si>
+    <t>OCEAN SCALLION</t>
+  </si>
+  <si>
+    <t>57 000,000</t>
+  </si>
+  <si>
+    <t>AST COMPANY M APK</t>
+  </si>
+  <si>
+    <t>GREAT ARSENAL</t>
+  </si>
+  <si>
+    <t>AGENT SERVICE</t>
+  </si>
+  <si>
+    <t>25 500,000</t>
+  </si>
+  <si>
+    <t>KZP EXPO</t>
+  </si>
+  <si>
+    <t>ESNA</t>
+  </si>
+  <si>
+    <t>MANUELA E</t>
+  </si>
+  <si>
+    <t>PEAS</t>
+  </si>
+  <si>
+    <t>5 000,000</t>
+  </si>
+  <si>
+    <t>KP ALBATROSS</t>
+  </si>
+  <si>
+    <t>45 000,000</t>
+  </si>
+  <si>
+    <t>09.09.2020</t>
+  </si>
+  <si>
+    <t>DARLING RIVER</t>
+  </si>
+  <si>
+    <t>GANOSAYA</t>
+  </si>
+  <si>
+    <t>14 700,000</t>
+  </si>
+  <si>
+    <t>10.09.2020</t>
+  </si>
+  <si>
+    <t>WADI ALBOSTAN</t>
+  </si>
+  <si>
+    <t>15.09.2020</t>
+  </si>
+  <si>
+    <t>20.09.2020</t>
+  </si>
+  <si>
+    <t>NIKOLAOS GS</t>
+  </si>
+  <si>
+    <t>08.09.2020</t>
+  </si>
+  <si>
+    <t>TAIYUAN</t>
+  </si>
+  <si>
+    <t>35 534,000</t>
+  </si>
+  <si>
+    <t>11.09.2020</t>
+  </si>
+  <si>
+    <t>AGIOS NIKOLAS</t>
+  </si>
+  <si>
+    <t>63 493,000</t>
+  </si>
+  <si>
+    <t>13.09.2020</t>
+  </si>
+  <si>
+    <t>HARROW</t>
+  </si>
+  <si>
+    <t>55 490,000</t>
+  </si>
+  <si>
+    <t>9 360,000</t>
+  </si>
+  <si>
+    <t>PANAMAX OSTRIA</t>
+  </si>
+  <si>
+    <t>63 890,000</t>
+  </si>
+  <si>
+    <t>WADI ALARISH</t>
+  </si>
+  <si>
+    <t>KARPATY</t>
+  </si>
+  <si>
+    <t>NOVAPORT AGENCY</t>
+  </si>
+  <si>
+    <t>23.09.2020</t>
+  </si>
+  <si>
+    <t>12.09.2020</t>
+  </si>
+  <si>
+    <t>TUAPSE</t>
+  </si>
+  <si>
+    <t>TGT</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <t>EQUINOX EAGLE</t>
+  </si>
+  <si>
+    <t>UNIVERSAL FORWARDER / TUAPSE</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>44 000,000</t>
+  </si>
+  <si>
+    <t>TANZANIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAR ES SALAAM </t>
+  </si>
+  <si>
+    <t>MARAKI K</t>
+  </si>
+  <si>
+    <t>25 455,400</t>
+  </si>
+  <si>
+    <t>AGROHOLDING STEPPE TD</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>QUEEN JUDI</t>
+  </si>
+  <si>
+    <t>30 850,000</t>
+  </si>
+  <si>
+    <t>CARGILL</t>
+  </si>
+  <si>
+    <t>barley</t>
+  </si>
+  <si>
+    <t>43 250,000</t>
+  </si>
+  <si>
+    <t>WP BRAVE</t>
+  </si>
+  <si>
+    <t>55 676,000</t>
+  </si>
+  <si>
+    <t>PHILIPPINES</t>
+  </si>
+  <si>
+    <t>TOMINI ABILITY</t>
+  </si>
+  <si>
+    <t>55 113,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHITTAGONG </t>
+  </si>
+  <si>
+    <t>PARANA WARRIOR</t>
+  </si>
+  <si>
+    <t>27 136,000</t>
+  </si>
+  <si>
+    <t>SENEGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAKAR </t>
+  </si>
+  <si>
+    <t>MONTREUX</t>
+  </si>
+  <si>
+    <t>31 300,100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL ISKANDARIYA (ALEXANDRIA) </t>
+  </si>
+  <si>
+    <t>AKRA</t>
+  </si>
+  <si>
+    <t>MOZAMBIQUE</t>
+  </si>
+  <si>
+    <t>BERGE TATEYAMA</t>
+  </si>
+  <si>
+    <t>DORO</t>
+  </si>
+  <si>
+    <t>51 170,000</t>
+  </si>
+  <si>
+    <t>SOUTH AFRICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPE TOWN </t>
+  </si>
+  <si>
+    <t>57 600,000</t>
+  </si>
+  <si>
+    <t>TRUE FRIEND</t>
+  </si>
+  <si>
+    <t>39 000,000</t>
+  </si>
+  <si>
+    <t>EMMAKRIS III</t>
+  </si>
+  <si>
+    <t>62 000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQABA </t>
+  </si>
+  <si>
+    <t>NILOS</t>
+  </si>
+  <si>
+    <t>68 000,000</t>
+  </si>
+  <si>
+    <t>SAUDI ARABIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD DAMMAM </t>
+  </si>
+  <si>
+    <t>45 440,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAGOS </t>
+  </si>
+  <si>
+    <t>OCEAN ANG</t>
+  </si>
+  <si>
+    <t>TAMREY S</t>
+  </si>
+  <si>
+    <t>MASTRO MITROS</t>
+  </si>
+  <si>
+    <t>40 000,000</t>
+  </si>
+  <si>
+    <t>STH OSLO</t>
+  </si>
+  <si>
+    <t>16.09.2020</t>
+  </si>
+  <si>
+    <t>SEA NAVIGATOR</t>
+  </si>
+  <si>
+    <t>5 700,000</t>
+  </si>
+  <si>
+    <t>WADI ALKARNAK</t>
+  </si>
+  <si>
+    <t>WADI ALARAB</t>
+  </si>
+  <si>
+    <t>ADRIANA ROSE</t>
   </si>
 </sst>
 </file>
@@ -418,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +1077,803 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2">
+        <v>9711298</v>
+      </c>
+      <c r="H2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3">
+        <v>9104158</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4">
+        <v>9295567</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>165</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>9218399</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>9460772</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" t="s">
+        <v>165</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7">
+        <v>9597111</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N7" t="s">
+        <v>165</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8">
+        <v>9460760</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9">
+        <v>9446726</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>176</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10">
+        <v>9412945</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N10" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11">
+        <v>9496276</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>183</v>
+      </c>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12">
+        <v>9698941</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" t="s">
+        <v>183</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13">
+        <v>9125566</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" t="s">
+        <v>193</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N13" t="s">
+        <v>160</v>
+      </c>
+      <c r="O13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14">
+        <v>9218387</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15">
+        <v>9311153</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>199</v>
+      </c>
+      <c r="N15" t="s">
+        <v>200</v>
+      </c>
+      <c r="O15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16">
+        <v>9757929</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" t="s">
+        <v>185</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17">
+        <v>9866706</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="s">
+        <v>173</v>
+      </c>
+      <c r="N17" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18">
+        <v>9492397</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" t="s">
+        <v>189</v>
+      </c>
+      <c r="N18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19">
+        <v>9541837</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20">
+        <v>9261970</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" t="s">
+        <v>202</v>
+      </c>
+      <c r="O20" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -493,7 +1881,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:O19"/>
@@ -558,6 +1946,803 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2">
+        <v>9400150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3">
+        <v>9592094</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4">
+        <v>9304215</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5">
+        <v>9304215</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6">
+        <v>9740081</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7">
+        <v>9316816</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>9746102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9">
+        <v>9316907</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>9541837</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11">
+        <v>9604005</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12">
+        <v>9738923</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13">
+        <v>9801299</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>9218399</v>
+      </c>
+      <c r="I14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15">
+        <v>9656864</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16">
+        <v>9452555</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17">
+        <v>9649861</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18">
+        <v>9620621</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" t="s">
+        <v>199</v>
+      </c>
+      <c r="O18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19">
+        <v>9389239</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20">
+        <v>9149677</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21">
+        <v>9489211</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>85</v>
+      </c>
+      <c r="O21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22">
+        <v>9500584</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23">
+        <v>9763693</v>
+      </c>
+      <c r="H23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>99</v>
+      </c>
+      <c r="N23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -565,7 +2750,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD10"/>
@@ -621,6 +2806,366 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>9150743</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3">
+        <v>9374349</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4">
+        <v>9008079</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5">
+        <v>9197882</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6">
+        <v>9077903</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7">
+        <v>9159062</v>
+      </c>
+      <c r="H7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8">
+        <v>9139268</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9">
+        <v>9159062</v>
+      </c>
+      <c r="H9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10">
+        <v>9139268</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -628,7 +3173,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -692,6 +3237,691 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2">
+        <v>9552367</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3">
+        <v>9378008</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4">
+        <v>9171541</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5">
+        <v>9151400</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6">
+        <v>9228071</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6" t="s">
+        <v>163</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7">
+        <v>9460722</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8">
+        <v>9738349</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M8" t="s">
+        <v>168</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9">
+        <v>8121381</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10">
+        <v>9267170</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11">
+        <v>9768928</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12">
+        <v>9291779</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13">
+        <v>9077898</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14">
+        <v>9399557</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15">
+        <v>9127136</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16">
+        <v>9107681</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17">
+        <v>9582506</v>
+      </c>
+      <c r="H17" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18">
+        <v>9727467</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Logistic OS/TempDocs/Test.xlsx
+++ b/Logistic OS/TempDocs/Test.xlsx
@@ -421,7 +421,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O19"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,9 @@
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="45.28515625" bestFit="1" customWidth="1"/>

--- a/Logistic OS/TempDocs/Test.xlsx
+++ b/Logistic OS/TempDocs/Test.xlsx
@@ -79,6 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,10 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -421,7 +426,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +438,7 @@
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
@@ -467,7 +472,7 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">

--- a/Logistic OS/TempDocs/Test.xlsx
+++ b/Logistic OS/TempDocs/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Loading Completed" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="295">
   <si>
     <t>№</t>
   </si>
@@ -73,6 +73,840 @@
   </si>
   <si>
     <t>Port of Discharge</t>
+  </si>
+  <si>
+    <t>TUAPSE</t>
+  </si>
+  <si>
+    <t>TGT</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <t>EQUINOX EAGLE</t>
+  </si>
+  <si>
+    <t>UNIVERSAL FORWARDER / TUAPSE</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>03.09.2020</t>
+  </si>
+  <si>
+    <t>SIERENTZ GLOBAL MERCHANTS VOSTOK</t>
+  </si>
+  <si>
+    <t>TANZANIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAR ES SALAAM </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CHIOS FREEDOM</t>
+  </si>
+  <si>
+    <t>13.09.2020</t>
+  </si>
+  <si>
+    <t>ZERNO-TRADE</t>
+  </si>
+  <si>
+    <t>SENEGAL</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>MALI</t>
+  </si>
+  <si>
+    <t>CAMEROON</t>
+  </si>
+  <si>
+    <t>NOVOROSSIYSK</t>
+  </si>
+  <si>
+    <t>KSK</t>
+  </si>
+  <si>
+    <t>MARAKI</t>
+  </si>
+  <si>
+    <t>SC DELO</t>
+  </si>
+  <si>
+    <t>01.09.2020</t>
+  </si>
+  <si>
+    <t>AGROHOLDING STEPPE TD</t>
+  </si>
+  <si>
+    <t>EGYPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL ISKANDARIYA (ALEXANDRIA) </t>
+  </si>
+  <si>
+    <t>O'WELLS &amp; GREENS</t>
+  </si>
+  <si>
+    <t>EMMAKRIS I</t>
+  </si>
+  <si>
+    <t>barley</t>
+  </si>
+  <si>
+    <t>04.09.2020</t>
+  </si>
+  <si>
+    <t>RIF TD</t>
+  </si>
+  <si>
+    <t>JORDAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQABA </t>
+  </si>
+  <si>
+    <t>WADI ALYARMOUK</t>
+  </si>
+  <si>
+    <t>08.09.2020</t>
+  </si>
+  <si>
+    <t>THE GENERAL AUTHORITY FOR SUPPLY COMMODITIES</t>
+  </si>
+  <si>
+    <t>QUEEN JUDI</t>
+  </si>
+  <si>
+    <t>09.09.2020</t>
+  </si>
+  <si>
+    <t>CARGILL</t>
+  </si>
+  <si>
+    <t>NIGERIA</t>
+  </si>
+  <si>
+    <t>HTK DISCOVERY</t>
+  </si>
+  <si>
+    <t>10.09.2020</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>MANUELA E</t>
+  </si>
+  <si>
+    <t>peas</t>
+  </si>
+  <si>
+    <t>ARTIS-AGRO EXPORT</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TARRAGONA </t>
+  </si>
+  <si>
+    <t>NEW SIHAM</t>
+  </si>
+  <si>
+    <t>11.09.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERSIN </t>
+  </si>
+  <si>
+    <t>DARLING RIVER</t>
+  </si>
+  <si>
+    <t>CONCERN POKROVSKIY TD</t>
+  </si>
+  <si>
+    <t>AL-BUSTAN MILLS COMPANY</t>
+  </si>
+  <si>
+    <t>KP ALBATROSS</t>
+  </si>
+  <si>
+    <t>15.09.2020</t>
+  </si>
+  <si>
+    <t>KENYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOMBASA </t>
+  </si>
+  <si>
+    <t>GANOSAYA</t>
+  </si>
+  <si>
+    <t>16.09.2020</t>
+  </si>
+  <si>
+    <t>FAIT KUBAN</t>
+  </si>
+  <si>
+    <t>LIBYA</t>
+  </si>
+  <si>
+    <t>NGT</t>
+  </si>
+  <si>
+    <t>WP BRAVE</t>
+  </si>
+  <si>
+    <t>TRANSAGENT</t>
+  </si>
+  <si>
+    <t>PHILIPPINES</t>
+  </si>
+  <si>
+    <t>WADI ALKARM</t>
+  </si>
+  <si>
+    <t>07.09.2020</t>
+  </si>
+  <si>
+    <t>OCEAN SCALLION</t>
+  </si>
+  <si>
+    <t>GLOBAL OCEAN SERVICE</t>
+  </si>
+  <si>
+    <t>AST COMPANY M APK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL DEKHEILA </t>
+  </si>
+  <si>
+    <t>NIKOLAOS GS</t>
+  </si>
+  <si>
+    <t>SKAT-UNIVERSAL</t>
+  </si>
+  <si>
+    <t>MIROGROUP RESOURCES</t>
+  </si>
+  <si>
+    <t>TUNISIA</t>
+  </si>
+  <si>
+    <t>WADI SUDR</t>
+  </si>
+  <si>
+    <t>NKHP</t>
+  </si>
+  <si>
+    <t>TOMINI ABILITY</t>
+  </si>
+  <si>
+    <t>UNITED GRAIN COMPANY</t>
+  </si>
+  <si>
+    <t>BANGLADESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHITTAGONG </t>
+  </si>
+  <si>
+    <t>PARANA WARRIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAKAR </t>
+  </si>
+  <si>
+    <t>MONTREUX</t>
+  </si>
+  <si>
+    <t>ARAB MILLS &amp; FOOD INDUSTRIES COMPANY</t>
+  </si>
+  <si>
+    <t>SEABEE / MT</t>
+  </si>
+  <si>
+    <t>ARROW LADY</t>
+  </si>
+  <si>
+    <t>GEMCORP COMMODITIES TRADING RUS</t>
+  </si>
+  <si>
+    <t>OMAN</t>
+  </si>
+  <si>
+    <t>WADI ALARISH</t>
+  </si>
+  <si>
+    <t>WADI ALKARNAK</t>
+  </si>
+  <si>
+    <t>KAVKAZ</t>
+  </si>
+  <si>
+    <t>TRUE FRIEND</t>
+  </si>
+  <si>
+    <t>LINTER</t>
+  </si>
+  <si>
+    <t>EMMAKRIS III</t>
+  </si>
+  <si>
+    <t>NILOS</t>
+  </si>
+  <si>
+    <t>SAUDI ARABIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD DAMMAM </t>
+  </si>
+  <si>
+    <t>AKRA</t>
+  </si>
+  <si>
+    <t>KAVKAZ LOGISTIC AGENCY</t>
+  </si>
+  <si>
+    <t>05.09.2020</t>
+  </si>
+  <si>
+    <t>ASTON</t>
+  </si>
+  <si>
+    <t>MOZAMBIQUE</t>
+  </si>
+  <si>
+    <t>BERGE TATEYAMA</t>
+  </si>
+  <si>
+    <t>DORO</t>
+  </si>
+  <si>
+    <t>SOUTH AFRICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPE TOWN </t>
+  </si>
+  <si>
+    <t>DORIC</t>
+  </si>
+  <si>
+    <t>06.09.2020</t>
+  </si>
+  <si>
+    <t>KESTREL S</t>
+  </si>
+  <si>
+    <t>YM EFFORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISKENDERUN </t>
+  </si>
+  <si>
+    <t>CORAL AMETHYST</t>
+  </si>
+  <si>
+    <t>KAPETAN SIDERIS</t>
+  </si>
+  <si>
+    <t>OCEAN ANG</t>
+  </si>
+  <si>
+    <t>QI XIAN LING</t>
+  </si>
+  <si>
+    <t>LIVITA</t>
+  </si>
+  <si>
+    <t>BOYANG GARNET</t>
+  </si>
+  <si>
+    <t>12.09.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEDDAH </t>
+  </si>
+  <si>
+    <t>PRINCESS LAYLA</t>
+  </si>
+  <si>
+    <t>UNIVERSAL MARINE COMPANY / KAVKAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDIRMA </t>
+  </si>
+  <si>
+    <t>TOPRAK MAHSULLERI OFISI GENEL MUDURLURU</t>
+  </si>
+  <si>
+    <t>DRAFTDODGER</t>
+  </si>
+  <si>
+    <t>14.09.2020</t>
+  </si>
+  <si>
+    <t>THAILAND</t>
+  </si>
+  <si>
+    <t>TANAIS FLYER</t>
+  </si>
+  <si>
+    <t>MATTEO BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEKIRDAG </t>
+  </si>
+  <si>
+    <t>AEGEA</t>
+  </si>
+  <si>
+    <t>VISHVA UDAY</t>
+  </si>
+  <si>
+    <t>NORDIC SEOUL</t>
+  </si>
+  <si>
+    <t>MTK-TAMAN</t>
+  </si>
+  <si>
+    <t>18.09.2020</t>
+  </si>
+  <si>
+    <t>LOUIS DREYFUS VOSTOK</t>
+  </si>
+  <si>
+    <t>CRIMSON ACE</t>
+  </si>
+  <si>
+    <t>CALYPSO GR</t>
+  </si>
+  <si>
+    <t>MAURITANIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOUAKCHOTT </t>
+  </si>
+  <si>
+    <t>TAMAN</t>
+  </si>
+  <si>
+    <t>ZTKT</t>
+  </si>
+  <si>
+    <t>TAMARACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAGOS </t>
+  </si>
+  <si>
+    <t>ANIMA</t>
+  </si>
+  <si>
+    <t>GLENCORE AGRICULTURE IGC</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>ESNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUMYAT (DAMIETTA) </t>
+  </si>
+  <si>
+    <t>WOODGATE</t>
+  </si>
+  <si>
+    <t>17.09.2020</t>
+  </si>
+  <si>
+    <t>KALININGRAD</t>
+  </si>
+  <si>
+    <t>PORT SILO</t>
+  </si>
+  <si>
+    <t>WILSON LAHN</t>
+  </si>
+  <si>
+    <t>INFLOTWEST</t>
+  </si>
+  <si>
+    <t>NORWAY</t>
+  </si>
+  <si>
+    <t>SODRUZHESTVO SOYA</t>
+  </si>
+  <si>
+    <t>NORDRUBICON</t>
+  </si>
+  <si>
+    <t>TRANS-AGRO MA</t>
+  </si>
+  <si>
+    <t>SODRUZHESTVO GROUP</t>
+  </si>
+  <si>
+    <t>BRAZIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORTALEZA </t>
+  </si>
+  <si>
+    <t>AFRICAN MAGNOLIA</t>
+  </si>
+  <si>
+    <t>GHANA</t>
+  </si>
+  <si>
+    <t>M IZMIR</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>5 800,000</t>
+  </si>
+  <si>
+    <t>MASTRO MITROS</t>
+  </si>
+  <si>
+    <t>38 980,000</t>
+  </si>
+  <si>
+    <t>TAIYUAN</t>
+  </si>
+  <si>
+    <t>35 534,000</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>PANAMAX OSTRIA</t>
+  </si>
+  <si>
+    <t>65 890,000</t>
+  </si>
+  <si>
+    <t>LEO OCEAN</t>
+  </si>
+  <si>
+    <t>55 000,000</t>
+  </si>
+  <si>
+    <t>PLATON / MH</t>
+  </si>
+  <si>
+    <t>50 000,000</t>
+  </si>
+  <si>
+    <t>KRISTINA P</t>
+  </si>
+  <si>
+    <t>40 000,000</t>
+  </si>
+  <si>
+    <t>BALTIC COUGAR</t>
+  </si>
+  <si>
+    <t>OUTSPAN INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>NANA LEEN</t>
+  </si>
+  <si>
+    <t>27 000,000</t>
+  </si>
+  <si>
+    <t>FATMA SARI</t>
+  </si>
+  <si>
+    <t>MARIETTA</t>
+  </si>
+  <si>
+    <t>65 000,000</t>
+  </si>
+  <si>
+    <t>GREENWICH EAGLE</t>
+  </si>
+  <si>
+    <t>60 000,000</t>
+  </si>
+  <si>
+    <t>INCE TOKYO</t>
+  </si>
+  <si>
+    <t>ATHINA III</t>
+  </si>
+  <si>
+    <t>ADRIANA ROSE</t>
+  </si>
+  <si>
+    <t>SUDAN</t>
+  </si>
+  <si>
+    <t>LMZ CERES</t>
+  </si>
+  <si>
+    <t>AGIA DOXA</t>
+  </si>
+  <si>
+    <t>30 000,000</t>
+  </si>
+  <si>
+    <t>POPI S</t>
+  </si>
+  <si>
+    <t>70 000,000</t>
+  </si>
+  <si>
+    <t>INCE BEYLERBEYI</t>
+  </si>
+  <si>
+    <t>ANNA S</t>
+  </si>
+  <si>
+    <t>IOANNA D</t>
+  </si>
+  <si>
+    <t>32 000,000</t>
+  </si>
+  <si>
+    <t>AYLA</t>
+  </si>
+  <si>
+    <t>26 000,000</t>
+  </si>
+  <si>
+    <t>AMINEH M</t>
+  </si>
+  <si>
+    <t>16 500,000</t>
+  </si>
+  <si>
+    <t>STH OSLO</t>
+  </si>
+  <si>
+    <t>38 000,000</t>
+  </si>
+  <si>
+    <t>SEA NAVIGATOR</t>
+  </si>
+  <si>
+    <t>5 700,000</t>
+  </si>
+  <si>
+    <t>CAROLINA BOLTEN</t>
+  </si>
+  <si>
+    <t>WADI ALARAB</t>
+  </si>
+  <si>
+    <t>63 000,000</t>
+  </si>
+  <si>
+    <t>WADI ALBOSTAN</t>
+  </si>
+  <si>
+    <t>49 500,000</t>
+  </si>
+  <si>
+    <t>19 250,000</t>
+  </si>
+  <si>
+    <t>GREAT ARSENAL</t>
+  </si>
+  <si>
+    <t>AGENT SERVICE</t>
+  </si>
+  <si>
+    <t>25 500,000</t>
+  </si>
+  <si>
+    <t>KZP EXPO</t>
+  </si>
+  <si>
+    <t>AGIOS NIKOLAS</t>
+  </si>
+  <si>
+    <t>63 493,000</t>
+  </si>
+  <si>
+    <t>AKIJ GLORY</t>
+  </si>
+  <si>
+    <t>65 050,000</t>
+  </si>
+  <si>
+    <t>AGGELIKI B</t>
+  </si>
+  <si>
+    <t>49 000,000</t>
+  </si>
+  <si>
+    <t>ARUNA ECE</t>
+  </si>
+  <si>
+    <t>38 500,000</t>
+  </si>
+  <si>
+    <t>19.09.2020</t>
+  </si>
+  <si>
+    <t>HANSEATIC EAGLE</t>
+  </si>
+  <si>
+    <t>SUURHUSEN.S</t>
+  </si>
+  <si>
+    <t>4 000,000</t>
+  </si>
+  <si>
+    <t>24.09.2020</t>
+  </si>
+  <si>
+    <t>20 000,000</t>
+  </si>
+  <si>
+    <t>25.09.2020</t>
+  </si>
+  <si>
+    <t>OCEAN ENTERPRISE</t>
+  </si>
+  <si>
+    <t>27.09.2020</t>
+  </si>
+  <si>
+    <t>TRAMMO LAOURA</t>
+  </si>
+  <si>
+    <t>35 000,000</t>
+  </si>
+  <si>
+    <t>28.09.2020</t>
+  </si>
+  <si>
+    <t>MAPLE STAR</t>
+  </si>
+  <si>
+    <t>COFCO INTERNATIONAL RU</t>
+  </si>
+  <si>
+    <t>TR LADY</t>
+  </si>
+  <si>
+    <t>54 000,000</t>
+  </si>
+  <si>
+    <t>WESTERN AIDA</t>
+  </si>
+  <si>
+    <t>32 874,000</t>
+  </si>
+  <si>
+    <t>20.09.2020</t>
+  </si>
+  <si>
+    <t>AKSON SERIN</t>
+  </si>
+  <si>
+    <t>EDFU</t>
+  </si>
+  <si>
+    <t>21.09.2020</t>
+  </si>
+  <si>
+    <t>NAIAS</t>
+  </si>
+  <si>
+    <t>SEAPOWER I</t>
+  </si>
+  <si>
+    <t>LUNARA</t>
+  </si>
+  <si>
+    <t>32 100,000</t>
+  </si>
+  <si>
+    <t>BONITA / LR</t>
+  </si>
+  <si>
+    <t>TATRY</t>
+  </si>
+  <si>
+    <t>NOVAPORT AGENCY</t>
+  </si>
+  <si>
+    <t>22.09.2020</t>
+  </si>
+  <si>
+    <t>ALMIRA</t>
+  </si>
+  <si>
+    <t>59 293,000</t>
+  </si>
+  <si>
+    <t>23.09.2020</t>
+  </si>
+  <si>
+    <t>SHI ZI FENG</t>
+  </si>
+  <si>
+    <t>INOI</t>
+  </si>
+  <si>
+    <t>30.09.2020</t>
+  </si>
+  <si>
+    <t>TBN</t>
+  </si>
+  <si>
+    <t>01.10.2020</t>
+  </si>
+  <si>
+    <t>IRAN</t>
+  </si>
+  <si>
+    <t>AGIA MARINA</t>
+  </si>
+  <si>
+    <t>22 500,000</t>
+  </si>
+  <si>
+    <t>BEKS MUNEVVER</t>
+  </si>
+  <si>
+    <t>45 000,000</t>
+  </si>
+  <si>
+    <t>INCE HAMBURG</t>
+  </si>
+  <si>
+    <t>25 000,000</t>
+  </si>
+  <si>
+    <t>WADI SAFAGA</t>
+  </si>
+  <si>
+    <t>57 750,000</t>
+  </si>
+  <si>
+    <t>KARPATY</t>
+  </si>
+  <si>
+    <t>66 000,000</t>
   </si>
 </sst>
 </file>
@@ -423,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -491,6 +1325,2481 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>9711298</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4">
+        <v>44000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>9680255</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3300</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>9680255</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7150</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>9680255</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4">
+        <v>23950</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>9104158</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4">
+        <v>25455.4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>9218399</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="4">
+        <v>43250</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>9460772</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4">
+        <v>57750</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>9295567</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4">
+        <v>30900</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10">
+        <v>9374349</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4">
+        <v>31500</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>9400150</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="4">
+        <v>4900</v>
+      </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12">
+        <v>9197882</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="4">
+        <v>26250</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13">
+        <v>9378008</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="4">
+        <v>31600</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14">
+        <v>9552367</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="4">
+        <v>51150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>9151400</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="4">
+        <v>14700</v>
+      </c>
+      <c r="K15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16">
+        <v>9597111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="4">
+        <v>55676</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17">
+        <v>9460760</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="4">
+        <v>63000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18">
+        <v>9592094</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="4">
+        <v>57000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19">
+        <v>9267170</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="4">
+        <v>27000</v>
+      </c>
+      <c r="K19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20">
+        <v>9077903</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="4">
+        <v>63000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21">
+        <v>9446726</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="4">
+        <v>55113</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22">
+        <v>9412945</v>
+      </c>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="4">
+        <v>27136</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" t="s">
+        <v>100</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23">
+        <v>9496276</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="4">
+        <v>31300.1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24">
+        <v>9698941</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="4">
+        <v>57600</v>
+      </c>
+      <c r="K24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25">
+        <v>9304215</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="4">
+        <v>9360</v>
+      </c>
+      <c r="K25" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" t="s">
+        <v>105</v>
+      </c>
+      <c r="M25" t="s">
+        <v>106</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26">
+        <v>9304215</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="4">
+        <v>55490</v>
+      </c>
+      <c r="K26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" t="s">
+        <v>105</v>
+      </c>
+      <c r="M26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27">
+        <v>9077898</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="4">
+        <v>63000</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28">
+        <v>9127136</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="4">
+        <v>63000</v>
+      </c>
+      <c r="K28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29">
+        <v>9125566</v>
+      </c>
+      <c r="H29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="4">
+        <v>39000</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30">
+        <v>9218387</v>
+      </c>
+      <c r="H30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="4">
+        <v>62000</v>
+      </c>
+      <c r="K30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31">
+        <v>9311153</v>
+      </c>
+      <c r="H31" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="4">
+        <v>68000</v>
+      </c>
+      <c r="K31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" t="s">
+        <v>114</v>
+      </c>
+      <c r="N31" t="s">
+        <v>115</v>
+      </c>
+      <c r="O31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32">
+        <v>9757929</v>
+      </c>
+      <c r="H32" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="4">
+        <v>55000</v>
+      </c>
+      <c r="K32" t="s">
+        <v>118</v>
+      </c>
+      <c r="L32" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33">
+        <v>9866706</v>
+      </c>
+      <c r="H33" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="4">
+        <v>55000</v>
+      </c>
+      <c r="K33" t="s">
+        <v>118</v>
+      </c>
+      <c r="L33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N33" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34">
+        <v>9492397</v>
+      </c>
+      <c r="H34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="4">
+        <v>51170</v>
+      </c>
+      <c r="K34" t="s">
+        <v>118</v>
+      </c>
+      <c r="L34" t="s">
+        <v>119</v>
+      </c>
+      <c r="M34" t="s">
+        <v>123</v>
+      </c>
+      <c r="N34" t="s">
+        <v>124</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35">
+        <v>9541837</v>
+      </c>
+      <c r="H35" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="4">
+        <v>10950</v>
+      </c>
+      <c r="K35" t="s">
+        <v>126</v>
+      </c>
+      <c r="L35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36">
+        <v>9489211</v>
+      </c>
+      <c r="H36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="4">
+        <v>30000</v>
+      </c>
+      <c r="K36" t="s">
+        <v>84</v>
+      </c>
+      <c r="L36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" t="s">
+        <v>78</v>
+      </c>
+      <c r="N36" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37">
+        <v>9389239</v>
+      </c>
+      <c r="H37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="4">
+        <v>70400</v>
+      </c>
+      <c r="K37" t="s">
+        <v>51</v>
+      </c>
+      <c r="L37" t="s">
+        <v>119</v>
+      </c>
+      <c r="M37" t="s">
+        <v>59</v>
+      </c>
+      <c r="N37" t="s">
+        <v>129</v>
+      </c>
+      <c r="O37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38">
+        <v>9620621</v>
+      </c>
+      <c r="H38" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="4">
+        <v>73700</v>
+      </c>
+      <c r="K38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" t="s">
+        <v>119</v>
+      </c>
+      <c r="M38" t="s">
+        <v>82</v>
+      </c>
+      <c r="N38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39">
+        <v>9316816</v>
+      </c>
+      <c r="H39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="4">
+        <v>48400</v>
+      </c>
+      <c r="K39" t="s">
+        <v>51</v>
+      </c>
+      <c r="L39" t="s">
+        <v>119</v>
+      </c>
+      <c r="M39" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40">
+        <v>9740081</v>
+      </c>
+      <c r="H40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="4">
+        <v>60500</v>
+      </c>
+      <c r="K40" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N40" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41">
+        <v>9656864</v>
+      </c>
+      <c r="H41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="4">
+        <v>31500</v>
+      </c>
+      <c r="K41" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" t="s">
+        <v>119</v>
+      </c>
+      <c r="M41" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42">
+        <v>9218399</v>
+      </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" s="4">
+        <v>17709</v>
+      </c>
+      <c r="K42" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" t="s">
+        <v>48</v>
+      </c>
+      <c r="N42" t="s">
+        <v>49</v>
+      </c>
+      <c r="O42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43">
+        <v>9801299</v>
+      </c>
+      <c r="H43" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="4">
+        <v>57140</v>
+      </c>
+      <c r="K43" t="s">
+        <v>66</v>
+      </c>
+      <c r="L43" t="s">
+        <v>47</v>
+      </c>
+      <c r="M43" t="s">
+        <v>114</v>
+      </c>
+      <c r="N43" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44">
+        <v>9316907</v>
+      </c>
+      <c r="H44" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="4">
+        <v>62878.43</v>
+      </c>
+      <c r="K44" t="s">
+        <v>136</v>
+      </c>
+      <c r="L44" t="s">
+        <v>119</v>
+      </c>
+      <c r="M44" t="s">
+        <v>114</v>
+      </c>
+      <c r="N44" t="s">
+        <v>137</v>
+      </c>
+      <c r="O44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45">
+        <v>9149677</v>
+      </c>
+      <c r="H45" t="s">
+        <v>139</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="4">
+        <v>26249</v>
+      </c>
+      <c r="K45" t="s">
+        <v>136</v>
+      </c>
+      <c r="L45" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" t="s">
+        <v>59</v>
+      </c>
+      <c r="N45" t="s">
+        <v>140</v>
+      </c>
+      <c r="O45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46">
+        <v>9746102</v>
+      </c>
+      <c r="H46" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="4">
+        <v>60000</v>
+      </c>
+      <c r="K46" t="s">
+        <v>143</v>
+      </c>
+      <c r="L46" t="s">
+        <v>47</v>
+      </c>
+      <c r="M46" t="s">
+        <v>144</v>
+      </c>
+      <c r="N46" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47">
+        <v>9186479</v>
+      </c>
+      <c r="H47" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>143</v>
+      </c>
+      <c r="L47" t="s">
+        <v>47</v>
+      </c>
+      <c r="M47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N47" t="s">
+        <v>129</v>
+      </c>
+      <c r="O47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48">
+        <v>9556844</v>
+      </c>
+      <c r="H48" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="4">
+        <v>23750</v>
+      </c>
+      <c r="K48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" t="s">
+        <v>119</v>
+      </c>
+      <c r="M48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N48" t="s">
+        <v>147</v>
+      </c>
+      <c r="O48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49">
+        <v>9217644</v>
+      </c>
+      <c r="H49" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="4">
+        <v>65000</v>
+      </c>
+      <c r="K49" t="s">
+        <v>72</v>
+      </c>
+      <c r="L49" t="s">
+        <v>119</v>
+      </c>
+      <c r="M49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50">
+        <v>9604005</v>
+      </c>
+      <c r="H50" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="4">
+        <v>70000</v>
+      </c>
+      <c r="K50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L50" t="s">
+        <v>47</v>
+      </c>
+      <c r="M50" t="s">
+        <v>97</v>
+      </c>
+      <c r="N50" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51">
+        <v>9649861</v>
+      </c>
+      <c r="H51" t="s">
+        <v>151</v>
+      </c>
+      <c r="I51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="4">
+        <v>33499.987999999998</v>
+      </c>
+      <c r="K51" t="s">
+        <v>152</v>
+      </c>
+      <c r="L51" t="s">
+        <v>153</v>
+      </c>
+      <c r="M51" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" t="s">
+        <v>100</v>
+      </c>
+      <c r="O51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52">
+        <v>9727429</v>
+      </c>
+      <c r="H52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="4">
+        <v>70000</v>
+      </c>
+      <c r="K52" t="s">
+        <v>152</v>
+      </c>
+      <c r="L52" t="s">
+        <v>47</v>
+      </c>
+      <c r="M52" t="s">
+        <v>106</v>
+      </c>
+      <c r="N52" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53">
+        <v>9785134</v>
+      </c>
+      <c r="H53" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="4">
+        <v>35000</v>
+      </c>
+      <c r="K53" t="s">
+        <v>152</v>
+      </c>
+      <c r="L53" t="s">
+        <v>47</v>
+      </c>
+      <c r="M53" t="s">
+        <v>156</v>
+      </c>
+      <c r="N53" t="s">
+        <v>157</v>
+      </c>
+      <c r="O53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54">
+        <v>9541837</v>
+      </c>
+      <c r="I54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="4">
+        <v>45440</v>
+      </c>
+      <c r="K54" t="s">
+        <v>39</v>
+      </c>
+      <c r="L54" t="s">
+        <v>91</v>
+      </c>
+      <c r="M54" t="s">
+        <v>97</v>
+      </c>
+      <c r="N54" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>160</v>
+      </c>
+      <c r="G55">
+        <v>9261970</v>
+      </c>
+      <c r="H55" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="4">
+        <v>46200</v>
+      </c>
+      <c r="K55" t="s">
+        <v>84</v>
+      </c>
+      <c r="L55" t="s">
+        <v>105</v>
+      </c>
+      <c r="M55" t="s">
+        <v>56</v>
+      </c>
+      <c r="N55" t="s">
+        <v>161</v>
+      </c>
+      <c r="O55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>162</v>
+      </c>
+      <c r="G56">
+        <v>9500584</v>
+      </c>
+      <c r="I56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="4">
+        <v>40840</v>
+      </c>
+      <c r="K56" t="s">
+        <v>54</v>
+      </c>
+      <c r="L56" t="s">
+        <v>163</v>
+      </c>
+      <c r="M56" t="s">
+        <v>164</v>
+      </c>
+      <c r="N56" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>165</v>
+      </c>
+      <c r="G57">
+        <v>9139268</v>
+      </c>
+      <c r="I57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="4">
+        <v>57750</v>
+      </c>
+      <c r="K57" t="s">
+        <v>143</v>
+      </c>
+      <c r="L57" t="s">
+        <v>91</v>
+      </c>
+      <c r="M57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N57" t="s">
+        <v>166</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>167</v>
+      </c>
+      <c r="G58">
+        <v>9493236</v>
+      </c>
+      <c r="I58" t="s">
+        <v>45</v>
+      </c>
+      <c r="J58" s="4">
+        <v>25443.618999999999</v>
+      </c>
+      <c r="K58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L58" t="s">
+        <v>91</v>
+      </c>
+      <c r="M58" t="s">
+        <v>92</v>
+      </c>
+      <c r="N58" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59">
+        <v>9198458</v>
+      </c>
+      <c r="H59" t="s">
+        <v>172</v>
+      </c>
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="4">
+        <v>1250</v>
+      </c>
+      <c r="K59" t="s">
+        <v>152</v>
+      </c>
+      <c r="L59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" t="s">
+        <v>173</v>
+      </c>
+      <c r="N59" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>175</v>
+      </c>
+      <c r="G60">
+        <v>9763693</v>
+      </c>
+      <c r="H60" t="s">
+        <v>176</v>
+      </c>
+      <c r="I60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="4">
+        <v>30500</v>
+      </c>
+      <c r="K60" t="s">
+        <v>72</v>
+      </c>
+      <c r="L60" t="s">
+        <v>177</v>
+      </c>
+      <c r="M60" t="s">
+        <v>178</v>
+      </c>
+      <c r="N60" t="s">
+        <v>179</v>
+      </c>
+      <c r="O60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G61">
+        <v>9666455</v>
+      </c>
+      <c r="H61" t="s">
+        <v>176</v>
+      </c>
+      <c r="I61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="4">
+        <v>27000</v>
+      </c>
+      <c r="K61" t="s">
+        <v>76</v>
+      </c>
+      <c r="L61" t="s">
+        <v>177</v>
+      </c>
+      <c r="M61" t="s">
+        <v>181</v>
+      </c>
+      <c r="N61" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -498,9 +3807,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -565,6 +3874,803 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2">
+        <v>9008079</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3">
+        <v>9228071</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4">
+        <v>9768928</v>
+      </c>
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5">
+        <v>9399557</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6">
+        <v>9738923</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7">
+        <v>9452555</v>
+      </c>
+      <c r="H7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8">
+        <v>9114139</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9">
+        <v>9387358</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
+        <v>199</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>9113850</v>
+      </c>
+      <c r="H10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11">
+        <v>9087233</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12">
+        <v>9281437</v>
+      </c>
+      <c r="H12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>204</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13">
+        <v>9575266</v>
+      </c>
+      <c r="H13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14">
+        <v>9730438</v>
+      </c>
+      <c r="H14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15">
+        <v>9247285</v>
+      </c>
+      <c r="H15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>204</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16">
+        <v>9727467</v>
+      </c>
+      <c r="H16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>206</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="s">
+        <v>163</v>
+      </c>
+      <c r="N16" t="s">
+        <v>210</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17">
+        <v>9492490</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>204</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18">
+        <v>9467976</v>
+      </c>
+      <c r="H18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>213</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19">
+        <v>9527233</v>
+      </c>
+      <c r="H19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20">
+        <v>9599767</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" t="s">
+        <v>153</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21">
+        <v>9207778</v>
+      </c>
+      <c r="H21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22">
+        <v>9634969</v>
+      </c>
+      <c r="H22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" t="s">
+        <v>119</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23">
+        <v>9123960</v>
+      </c>
+      <c r="H23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -572,7 +4678,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD10"/>
@@ -628,6 +4734,425 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2">
+        <v>9150743</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3">
+        <v>9738349</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4">
+        <v>8121381</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5">
+        <v>9718454</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6">
+        <v>9107681</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7">
+        <v>9460722</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8">
+        <v>9738349</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9">
+        <v>9159062</v>
+      </c>
+      <c r="H9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>236</v>
+      </c>
+      <c r="K9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" t="s">
+        <v>237</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10">
+        <v>9291779</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11">
+        <v>9362205</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>241</v>
+      </c>
+      <c r="K11" t="s">
+        <v>143</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -635,9 +5160,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -699,6 +5224,1015 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2">
+        <v>9456238</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3">
+        <v>9635406</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4">
+        <v>9490674</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5">
+        <v>9123245</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>249</v>
+      </c>
+      <c r="K5" t="s">
+        <v>250</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>9104158</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K6" t="s">
+        <v>252</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7">
+        <v>9712175</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8">
+        <v>9762912</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" t="s">
+        <v>257</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9">
+        <v>9662370</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M9" t="s">
+        <v>259</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10">
+        <v>9720926</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>261</v>
+      </c>
+      <c r="K10" t="s">
+        <v>152</v>
+      </c>
+      <c r="M10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11">
+        <v>9609677</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>263</v>
+      </c>
+      <c r="K11" t="s">
+        <v>264</v>
+      </c>
+      <c r="M11" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12">
+        <v>9275311</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>256</v>
+      </c>
+      <c r="K12" t="s">
+        <v>264</v>
+      </c>
+      <c r="M12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13">
+        <v>9139256</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" t="s">
+        <v>267</v>
+      </c>
+      <c r="M13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14">
+        <v>9330800</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" t="s">
+        <v>252</v>
+      </c>
+      <c r="M14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>269</v>
+      </c>
+      <c r="G15">
+        <v>9214331</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16">
+        <v>9443126</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>271</v>
+      </c>
+      <c r="K16" t="s">
+        <v>246</v>
+      </c>
+      <c r="M16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17">
+        <v>9231286</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" t="s">
+        <v>267</v>
+      </c>
+      <c r="M17" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18">
+        <v>9582960</v>
+      </c>
+      <c r="H18" t="s">
+        <v>274</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" t="s">
+        <v>206</v>
+      </c>
+      <c r="K18" t="s">
+        <v>275</v>
+      </c>
+      <c r="M18" t="s">
+        <v>163</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G19">
+        <v>9581784</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>277</v>
+      </c>
+      <c r="K19" t="s">
+        <v>278</v>
+      </c>
+      <c r="M19" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>279</v>
+      </c>
+      <c r="G20">
+        <v>9617466</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>264</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G21">
+        <v>9400928</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>281</v>
+      </c>
+      <c r="M21" t="s">
+        <v>163</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>282</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>283</v>
+      </c>
+      <c r="M22" t="s">
+        <v>163</v>
+      </c>
+      <c r="N22" t="s">
+        <v>284</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>285</v>
+      </c>
+      <c r="G23">
+        <v>9276743</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>286</v>
+      </c>
+      <c r="K23" t="s">
+        <v>246</v>
+      </c>
+      <c r="M23" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" t="s">
+        <v>287</v>
+      </c>
+      <c r="G24">
+        <v>9748241</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>288</v>
+      </c>
+      <c r="K24" t="s">
+        <v>267</v>
+      </c>
+      <c r="M24" t="s">
+        <v>163</v>
+      </c>
+      <c r="N24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" t="s">
+        <v>289</v>
+      </c>
+      <c r="G25">
+        <v>9574169</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" t="s">
+        <v>267</v>
+      </c>
+      <c r="M25" t="s">
+        <v>163</v>
+      </c>
+      <c r="N25" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26">
+        <v>9460734</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>292</v>
+      </c>
+      <c r="K26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M26" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G27">
+        <v>9582506</v>
+      </c>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" t="s">
+        <v>294</v>
+      </c>
+      <c r="K27" t="s">
+        <v>250</v>
+      </c>
+      <c r="M27" t="s">
+        <v>163</v>
+      </c>
+      <c r="N27" t="s">
+        <v>114</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
